--- a/2021-05-11.xlsx
+++ b/2021-05-11.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HennequinM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AF22DE-585C-44AE-BA7C-521C7EEFCBE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90800226-8018-4D30-95A5-B2CB4ABCC057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="110" windowWidth="28520" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_10.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_10.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_11.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_11.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_10.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_10.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_11.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_11.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -248,13 +248,10 @@
     <t xml:space="preserve">**Unter "begonnene Impfserie" werden alle Erstimpfungen mit den Impfstoffen von BioNTech, Moderna und AstraZeneca zusammengefasst. Unter "vollständig geimpft" erscheinen alle Zweitimpfungen mit BioNTech, Moderna und AstraZeneca sowie alle Impfungen mit Janssen. </t>
   </si>
   <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 10.05.21 (Impfquote_bis_einschl_10.05.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 10.05.21 durchgeführt und bis zum 11.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 10.05.21 (Impfstoff_bis_einschl_10.05.21)</t>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 11.05.21 (Impfquote_bis_einschl_11.05.21)</t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 11.05.21 (Impfstoff_bis_einschl_11.05.21)</t>
   </si>
   <si>
     <t>-</t>
@@ -275,7 +272,10 @@
     <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2307.000 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
   </si>
   <si>
-    <t>Datenstand: 11.05.2021, 11:00 Uhr</t>
+    <t>Datenstand: 12.05.2021, 14:00 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 11.05.21 durchgeführt und bis zum 12.05.21, 14:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
 </sst>
 </file>
@@ -369,15 +369,15 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -723,25 +723,25 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -763,6 +763,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -774,24 +792,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1143,113 +1143,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="214.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="214.54296875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
@@ -1264,32 +1264,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="4" customWidth="1"/>
-    <col min="6" max="8" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="3.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="4" customWidth="1"/>
+    <col min="6" max="8" width="11.453125" style="4"/>
     <col min="9" max="9" width="13" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="4" customWidth="1"/>
     <col min="11" max="11" width="10" style="4" customWidth="1"/>
-    <col min="12" max="14" width="11.42578125" style="4"/>
-    <col min="15" max="15" width="12.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="4"/>
-    <col min="20" max="20" width="18.42578125" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="4"/>
+    <col min="12" max="14" width="11.453125" style="4"/>
+    <col min="15" max="15" width="12.7265625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.81640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="11.453125" style="4"/>
+    <col min="20" max="20" width="18.453125" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="11.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="75" t="s">
         <v>30</v>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="R1" s="79"/>
       <c r="S1" s="79"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="76"/>
       <c r="B2" s="76"/>
       <c r="C2" s="80" t="s">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="S2" s="81"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
       <c r="C3" s="80"/>
@@ -1380,7 +1380,7 @@
       <c r="R3" s="81"/>
       <c r="S3" s="81"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="77"/>
       <c r="B4" s="77"/>
       <c r="C4" s="80"/>
@@ -1429,7 +1429,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>21</v>
       </c>
@@ -1437,58 +1437,58 @@
         <v>69</v>
       </c>
       <c r="C5" s="32">
-        <v>4634755</v>
+        <v>4807333</v>
       </c>
       <c r="D5" s="32">
-        <v>3614700</v>
+        <v>3733109</v>
       </c>
       <c r="E5" s="32">
-        <v>1020055</v>
+        <v>1074224</v>
       </c>
       <c r="F5" s="33">
-        <v>32.563708999878742</v>
+        <v>33.630418884230593</v>
       </c>
       <c r="G5" s="33">
-        <v>19.21538553664336</v>
+        <v>20.192494171379792</v>
       </c>
       <c r="H5" s="33">
-        <v>68.761509820373092</v>
+        <v>70.138030725021522</v>
       </c>
       <c r="I5" s="33">
-        <v>9.1893585038513059</v>
+        <v>9.6773501913535682</v>
       </c>
       <c r="J5" s="33">
-        <v>4.1136591413538666</v>
+        <v>4.4660624106547253</v>
       </c>
       <c r="K5" s="33">
-        <v>22.862926248689856</v>
+        <v>23.653501800021981</v>
       </c>
       <c r="L5" s="32">
-        <v>1246017</v>
+        <v>1287232</v>
       </c>
       <c r="M5" s="32">
-        <v>1454695</v>
+        <v>1470013</v>
       </c>
       <c r="N5" s="32">
-        <v>313536</v>
+        <v>337395</v>
       </c>
       <c r="O5" s="32">
-        <v>645781</v>
+        <v>660280</v>
       </c>
       <c r="P5" s="34">
-        <v>313501</v>
+        <v>351588</v>
       </c>
       <c r="Q5" s="34">
-        <v>597429</v>
+        <v>623192</v>
       </c>
       <c r="R5" s="34">
-        <v>20328</v>
+        <v>25070</v>
       </c>
       <c r="S5" s="34">
-        <v>36542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1496,58 +1496,58 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>5649046</v>
+        <v>5822947</v>
       </c>
       <c r="D6" s="13">
-        <v>4446626</v>
+        <v>4580940</v>
       </c>
       <c r="E6" s="13">
-        <v>1202420</v>
+        <v>1242007</v>
       </c>
       <c r="F6" s="14">
-        <v>33.879734123434247</v>
+        <v>34.903099391629716</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" s="14">
-        <v>9.1614788166802885</v>
+        <v>9.4631000986915019</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P6" s="17">
-        <v>514093</v>
+        <v>571471</v>
       </c>
       <c r="Q6" s="18">
-        <v>742183</v>
+        <v>777667</v>
       </c>
       <c r="R6" s="17">
-        <v>22543</v>
+        <v>27945</v>
       </c>
       <c r="S6" s="18">
-        <v>24873</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>32190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="35">
         <v>11</v>
       </c>
@@ -1555,58 +1555,58 @@
         <v>2</v>
       </c>
       <c r="C7" s="37">
-        <v>1522301</v>
+        <v>1568820</v>
       </c>
       <c r="D7" s="37">
-        <v>1108113</v>
+        <v>1144475</v>
       </c>
       <c r="E7" s="37">
-        <v>414188</v>
+        <v>424345</v>
       </c>
       <c r="F7" s="38">
-        <v>30.198002938282176</v>
+        <v>31.188930562849183</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" s="38">
-        <v>11.287342031905787</v>
+        <v>11.564137914495499</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N7" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P7" s="41">
-        <v>205576</v>
+        <v>226390</v>
       </c>
       <c r="Q7" s="41">
-        <v>109092</v>
+        <v>114129</v>
       </c>
       <c r="R7" s="41">
-        <v>11496</v>
+        <v>14253</v>
       </c>
       <c r="S7" s="41">
-        <v>7359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>8951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>12</v>
       </c>
@@ -1614,58 +1614,58 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>986534</v>
+        <v>1027110</v>
       </c>
       <c r="D8" s="13">
-        <v>735705</v>
+        <v>759468</v>
       </c>
       <c r="E8" s="13">
-        <v>250829</v>
+        <v>267642</v>
       </c>
       <c r="F8" s="14">
-        <v>29.172728581268121</v>
+        <v>30.114996948720663</v>
       </c>
       <c r="G8" s="44">
-        <v>15.502008887500526</v>
+        <v>16.233562235873151</v>
       </c>
       <c r="H8" s="44">
-        <v>56.122858785023574</v>
+        <v>57.526687781216715</v>
       </c>
       <c r="I8" s="44">
-        <v>9.9460603602135382</v>
+        <v>10.612742094926311</v>
       </c>
       <c r="J8" s="63">
-        <v>4.7263138526563404</v>
+        <v>5.1280913527613547</v>
       </c>
       <c r="K8" s="44">
-        <v>20.478107482198126</v>
+        <v>21.649868815637273</v>
       </c>
       <c r="L8" s="17">
-        <v>185533</v>
+        <v>189485</v>
       </c>
       <c r="M8" s="18">
-        <v>288785</v>
+        <v>290824</v>
       </c>
       <c r="N8" s="17">
-        <v>71079</v>
+        <v>75922</v>
       </c>
       <c r="O8" s="18">
-        <v>152237</v>
+        <v>157817</v>
       </c>
       <c r="P8" s="17">
-        <v>76488</v>
+        <v>84901</v>
       </c>
       <c r="Q8" s="18">
-        <v>177963</v>
+        <v>187599</v>
       </c>
       <c r="R8" s="17">
-        <v>8807</v>
+        <v>10755</v>
       </c>
       <c r="S8" s="18">
-        <v>18070</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>22235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>23</v>
       </c>
@@ -1673,58 +1673,58 @@
         <v>68</v>
       </c>
       <c r="C9" s="37">
-        <v>320235</v>
+        <v>329573</v>
       </c>
       <c r="D9" s="37">
-        <v>235218</v>
+        <v>241707</v>
       </c>
       <c r="E9" s="37">
-        <v>85017</v>
+        <v>87866</v>
       </c>
       <c r="F9" s="38">
-        <v>34.529845772619581</v>
+        <v>35.482426651712707</v>
       </c>
       <c r="G9" s="64">
-        <v>18.444752408041889</v>
+        <v>19.41160546900252</v>
       </c>
       <c r="H9" s="64">
-        <v>78.127114729797952</v>
+        <v>79.065920491530335</v>
       </c>
       <c r="I9" s="64">
-        <v>12.480438988728746</v>
+        <v>12.898670291631555</v>
       </c>
       <c r="J9" s="64">
-        <v>4.3779090438942401</v>
+        <v>4.5772997608119468</v>
       </c>
       <c r="K9" s="64">
-        <v>33.187428166321148</v>
+        <v>34.163292050227184</v>
       </c>
       <c r="L9" s="42">
-        <v>65914</v>
+        <v>67419</v>
       </c>
       <c r="M9" s="42">
-        <v>118005</v>
+        <v>118796</v>
       </c>
       <c r="N9" s="42">
-        <v>20589</v>
+        <v>21319</v>
       </c>
       <c r="O9" s="42">
-        <v>60545</v>
+        <v>62046</v>
       </c>
       <c r="P9" s="42">
-        <v>25389</v>
+        <v>28670</v>
       </c>
       <c r="Q9" s="42">
-        <v>27463</v>
+        <v>28420</v>
       </c>
       <c r="R9" s="42">
-        <v>1082</v>
+        <v>1339</v>
       </c>
       <c r="S9" s="42">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
@@ -1732,58 +1732,58 @@
         <v>3</v>
       </c>
       <c r="C10" s="13">
-        <v>777189</v>
+        <v>795322</v>
       </c>
       <c r="D10" s="13">
-        <v>612767</v>
+        <v>626907</v>
       </c>
       <c r="E10" s="13">
-        <v>164422</v>
+        <v>168415</v>
       </c>
       <c r="F10" s="14">
-        <v>33.171796175185534</v>
+        <v>33.937257105550785</v>
       </c>
       <c r="G10" s="44">
-        <v>21.978627790948657</v>
+        <v>22.758784190226812</v>
       </c>
       <c r="H10" s="44">
-        <v>69.553872267119303</v>
+        <v>70.274502939869137</v>
       </c>
       <c r="I10" s="44">
-        <v>8.9008922979147957</v>
+        <v>9.1170511023665952</v>
       </c>
       <c r="J10" s="44">
-        <v>4.7329535402144298</v>
+        <v>4.8918297300166307</v>
       </c>
       <c r="K10" s="44">
-        <v>22.274373967936654</v>
+        <v>22.675568800768303</v>
       </c>
       <c r="L10" s="18">
-        <v>249926</v>
+        <v>255209</v>
       </c>
       <c r="M10" s="18">
-        <v>221214</v>
+        <v>221742</v>
       </c>
       <c r="N10" s="18">
-        <v>64243</v>
+        <v>65996</v>
       </c>
       <c r="O10" s="18">
-        <v>93696</v>
+        <v>94750</v>
       </c>
       <c r="P10" s="18">
-        <v>60643</v>
+        <v>66384</v>
       </c>
       <c r="Q10" s="18">
-        <v>80791</v>
+        <v>83392</v>
       </c>
       <c r="R10" s="18">
-        <v>2636</v>
+        <v>3128</v>
       </c>
       <c r="S10" s="18">
-        <v>3020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>25</v>
       </c>
@@ -1791,58 +1791,58 @@
         <v>11</v>
       </c>
       <c r="C11" s="37">
-        <v>2636773</v>
+        <v>2711174</v>
       </c>
       <c r="D11" s="37">
-        <v>2085444</v>
+        <v>2145081</v>
       </c>
       <c r="E11" s="37">
-        <v>551329</v>
+        <v>566093</v>
       </c>
       <c r="F11" s="38">
-        <v>33.16503606824341</v>
+        <v>34.113449574432899</v>
       </c>
       <c r="G11" s="64">
-        <v>20.532611919859928</v>
+        <v>21.379289827440022</v>
       </c>
       <c r="H11" s="64">
-        <v>66.783811114916901</v>
+        <v>68.003138609085894</v>
       </c>
       <c r="I11" s="64">
-        <v>8.7678432844365837</v>
+        <v>9.002636734901591</v>
       </c>
       <c r="J11" s="64">
-        <v>3.446321430040189</v>
+        <v>3.5936724799164197</v>
       </c>
       <c r="K11" s="64">
-        <v>22.937826647187251</v>
+        <v>23.405472410764009</v>
       </c>
       <c r="L11" s="41">
-        <v>730981</v>
+        <v>746014</v>
       </c>
       <c r="M11" s="41">
-        <v>837337</v>
+        <v>843484</v>
       </c>
       <c r="N11" s="41">
-        <v>147501</v>
+        <v>152085</v>
       </c>
       <c r="O11" s="41">
-        <v>379971</v>
+        <v>385013</v>
       </c>
       <c r="P11" s="41">
-        <v>207646</v>
+        <v>231318</v>
       </c>
       <c r="Q11" s="41">
-        <v>309130</v>
+        <v>323915</v>
       </c>
       <c r="R11" s="41">
-        <v>10044</v>
+        <v>12196</v>
       </c>
       <c r="S11" s="41">
-        <v>13799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>16785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>13</v>
       </c>
@@ -1850,58 +1850,58 @@
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>714098</v>
+        <v>738381</v>
       </c>
       <c r="D12" s="13">
-        <v>571124</v>
+        <v>588299</v>
       </c>
       <c r="E12" s="13">
-        <v>142974</v>
+        <v>150082</v>
       </c>
       <c r="F12" s="14">
-        <v>35.514613795582214</v>
+        <v>36.582619153331372</v>
       </c>
       <c r="G12" s="44">
-        <v>20.6707882070924</v>
+        <v>21.533047976681285</v>
       </c>
       <c r="H12" s="44">
-        <v>64.745234096739068</v>
+        <v>66.260542196467782</v>
       </c>
       <c r="I12" s="44">
-        <v>8.890654906481906</v>
+        <v>9.332656774480796</v>
       </c>
       <c r="J12" s="44">
-        <v>3.7475568993911477</v>
+        <v>3.9607303229582058</v>
       </c>
       <c r="K12" s="44">
-        <v>18.974846365364385</v>
+        <v>19.82468119659697</v>
       </c>
       <c r="L12" s="18">
-        <v>152076</v>
+        <v>155518</v>
       </c>
       <c r="M12" s="18">
-        <v>216309</v>
+        <v>217918</v>
       </c>
       <c r="N12" s="18">
-        <v>35345</v>
+        <v>36681</v>
       </c>
       <c r="O12" s="18">
-        <v>96838</v>
+        <v>100019</v>
       </c>
       <c r="P12" s="18">
-        <v>68330</v>
+        <v>74082</v>
       </c>
       <c r="Q12" s="18">
-        <v>134526</v>
+        <v>141128</v>
       </c>
       <c r="R12" s="18">
-        <v>4614</v>
+        <v>5551</v>
       </c>
       <c r="S12" s="18">
-        <v>5981</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>7405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>26</v>
       </c>
@@ -1909,58 +1909,58 @@
         <v>5</v>
       </c>
       <c r="C13" s="37">
-        <v>3418090</v>
+        <v>3523625</v>
       </c>
       <c r="D13" s="37">
-        <v>2753570</v>
+        <v>2836704</v>
       </c>
       <c r="E13" s="37">
-        <v>664520</v>
+        <v>686921</v>
       </c>
       <c r="F13" s="38">
-        <v>34.447148271468905</v>
+        <v>35.487154236234751</v>
       </c>
       <c r="G13" s="64">
-        <v>19.789458378668975</v>
+        <v>20.70039010508598</v>
       </c>
       <c r="H13" s="64">
-        <v>70.917070897095385</v>
+        <v>72.292830734281921</v>
       </c>
       <c r="I13" s="64">
-        <v>8.3131422006182945</v>
+        <v>8.5933786095089975</v>
       </c>
       <c r="J13" s="64">
-        <v>2.6518555472253178</v>
+        <v>2.8151430693371697</v>
       </c>
       <c r="K13" s="64">
-        <v>21.746595406235908</v>
+        <v>22.295360101970267</v>
       </c>
       <c r="L13" s="42">
-        <v>855148</v>
+        <v>875114</v>
       </c>
       <c r="M13" s="42">
-        <v>1171107</v>
+        <v>1180853</v>
       </c>
       <c r="N13" s="42">
-        <v>138527</v>
+        <v>145190</v>
       </c>
       <c r="O13" s="42">
-        <v>488845</v>
+        <v>498523</v>
       </c>
       <c r="P13" s="42">
-        <v>269047</v>
+        <v>300829</v>
       </c>
       <c r="Q13" s="42">
-        <v>469085</v>
+        <v>491158</v>
       </c>
       <c r="R13" s="42">
-        <v>12119</v>
+        <v>14732</v>
       </c>
       <c r="S13" s="42">
-        <v>14117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>17131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
@@ -1968,58 +1968,58 @@
         <v>67</v>
       </c>
       <c r="C14" s="13">
-        <v>7905775</v>
+        <v>8144001</v>
       </c>
       <c r="D14" s="13">
-        <v>6324384</v>
+        <v>6513730</v>
       </c>
       <c r="E14" s="13">
-        <v>1581391</v>
+        <v>1630271</v>
       </c>
       <c r="F14" s="14">
-        <v>35.238792679936353</v>
+        <v>36.293808384038954</v>
       </c>
       <c r="G14" s="44">
-        <v>20.655697354409934</v>
+        <v>21.689593401828105</v>
       </c>
       <c r="H14" s="44">
-        <v>72.853434761378537</v>
+        <v>73.970434218896273</v>
       </c>
       <c r="I14" s="44">
-        <v>8.811341878500297</v>
+        <v>9.0836960217963547</v>
       </c>
       <c r="J14" s="44">
-        <v>3.8113889073247509</v>
+        <v>4.005452786581869</v>
       </c>
       <c r="K14" s="44">
-        <v>21.632550847999578</v>
+        <v>22.098950118527295</v>
       </c>
       <c r="L14" s="18">
-        <v>1923580</v>
+        <v>1962845</v>
       </c>
       <c r="M14" s="18">
-        <v>2594399</v>
+        <v>2605421</v>
       </c>
       <c r="N14" s="18">
-        <v>465894</v>
+        <v>484021</v>
       </c>
       <c r="O14" s="18">
-        <v>1051870</v>
+        <v>1066118</v>
       </c>
       <c r="P14" s="18">
-        <v>746727</v>
+        <v>841121</v>
       </c>
       <c r="Q14" s="18">
-        <v>1062493</v>
+        <v>1107539</v>
       </c>
       <c r="R14" s="18">
-        <v>26831</v>
+        <v>33792</v>
       </c>
       <c r="S14" s="18">
-        <v>33980</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>43143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
         <v>28</v>
       </c>
@@ -2027,58 +2027,58 @@
         <v>9</v>
       </c>
       <c r="C15" s="37">
-        <v>1770698</v>
+        <v>1827901</v>
       </c>
       <c r="D15" s="37">
-        <v>1306234</v>
+        <v>1347509</v>
       </c>
       <c r="E15" s="37">
-        <v>464464</v>
+        <v>480392</v>
       </c>
       <c r="F15" s="38">
-        <v>31.906813620156608</v>
+        <v>32.915020214206351</v>
       </c>
       <c r="G15" s="64">
-        <v>18.016358520678363</v>
+        <v>18.826863924277816</v>
       </c>
       <c r="H15" s="64">
-        <v>65.504878507406559</v>
+        <v>66.99178906462194</v>
       </c>
       <c r="I15" s="64">
-        <v>11.345261477861101</v>
+        <v>11.734327852907116</v>
       </c>
       <c r="J15" s="64">
-        <v>5.334570335150179</v>
+        <v>5.628599868568557</v>
       </c>
       <c r="K15" s="64">
-        <v>25.89925412113741</v>
+        <v>26.518438041911292</v>
       </c>
       <c r="L15" s="42">
-        <v>403243</v>
+        <v>411459</v>
       </c>
       <c r="M15" s="42">
-        <v>551966</v>
+        <v>556630</v>
       </c>
       <c r="N15" s="42">
-        <v>148415</v>
+        <v>155004</v>
       </c>
       <c r="O15" s="42">
-        <v>298306</v>
+        <v>302195</v>
       </c>
       <c r="P15" s="42">
-        <v>118750</v>
+        <v>134017</v>
       </c>
       <c r="Q15" s="42">
-        <v>231849</v>
+        <v>244977</v>
       </c>
       <c r="R15" s="42">
-        <v>6145</v>
+        <v>8075</v>
       </c>
       <c r="S15" s="42">
-        <v>11598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>15118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>10</v>
       </c>
@@ -2086,58 +2086,58 @@
         <v>10</v>
       </c>
       <c r="C16" s="13">
-        <v>467350</v>
+        <v>482446</v>
       </c>
       <c r="D16" s="13">
-        <v>369963</v>
+        <v>381473</v>
       </c>
       <c r="E16" s="13">
-        <v>97387</v>
+        <v>100973</v>
       </c>
       <c r="F16" s="14">
-        <v>37.4878785514451</v>
+        <v>38.654172159527889</v>
       </c>
       <c r="G16" s="44">
-        <v>22.165249900791579</v>
+        <v>23.236551664463693</v>
       </c>
       <c r="H16" s="44">
-        <v>69.930602278721722</v>
+        <v>71.298024834086689</v>
       </c>
       <c r="I16" s="44">
-        <v>9.8681004005524446</v>
+        <v>10.231465203209689</v>
       </c>
       <c r="J16" s="44">
-        <v>3.2588101553618798</v>
+        <v>3.4730406709771358</v>
       </c>
       <c r="K16" s="44">
-        <v>23.862139547224881</v>
+        <v>24.54127063847799</v>
       </c>
       <c r="L16" s="18">
-        <v>110447</v>
+        <v>112840</v>
       </c>
       <c r="M16" s="18">
-        <v>166547</v>
+        <v>168184</v>
       </c>
       <c r="N16" s="18">
-        <v>20091</v>
+        <v>20916</v>
       </c>
       <c r="O16" s="18">
-        <v>73593</v>
+        <v>75012</v>
       </c>
       <c r="P16" s="18">
-        <v>38128</v>
+        <v>42916</v>
       </c>
       <c r="Q16" s="18">
-        <v>54840</v>
+        <v>57532</v>
       </c>
       <c r="R16" s="18">
-        <v>1753</v>
+        <v>2364</v>
       </c>
       <c r="S16" s="18">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="35">
         <v>14</v>
       </c>
@@ -2145,58 +2145,58 @@
         <v>6</v>
       </c>
       <c r="C17" s="37">
-        <v>1724511</v>
+        <v>1770726</v>
       </c>
       <c r="D17" s="37">
-        <v>1186266</v>
+        <v>1212974</v>
       </c>
       <c r="E17" s="37">
-        <v>538245</v>
+        <v>557752</v>
       </c>
       <c r="F17" s="38">
-        <v>29.132476631095848</v>
+        <v>29.788375211905976</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="64">
-        <v>13.21829158410018</v>
+        <v>13.697347058709406</v>
       </c>
       <c r="J17" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K17" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M17" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N17" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P17" s="41">
-        <v>80805</v>
+        <v>88437</v>
       </c>
       <c r="Q17" s="41">
-        <v>232681</v>
+        <v>246165</v>
       </c>
       <c r="R17" s="41">
-        <v>12280</v>
+        <v>13931</v>
       </c>
       <c r="S17" s="41">
-        <v>36601</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>40792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -2204,58 +2204,58 @@
         <v>7</v>
       </c>
       <c r="C18" s="13">
-        <v>926344</v>
+        <v>956506</v>
       </c>
       <c r="D18" s="13">
-        <v>717365</v>
+        <v>737063</v>
       </c>
       <c r="E18" s="13">
-        <v>208979</v>
+        <v>219443</v>
       </c>
       <c r="F18" s="14">
-        <v>32.685022931662459</v>
+        <v>33.582515256640519</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I18" s="44">
-        <v>9.5216290273931534</v>
+        <v>9.9983961960686756</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L18" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M18" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N18" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O18" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P18" s="17">
-        <v>50669</v>
+        <v>56089</v>
       </c>
       <c r="Q18" s="18">
-        <v>144161</v>
+        <v>151932</v>
       </c>
       <c r="R18" s="17">
-        <v>2902</v>
+        <v>3752</v>
       </c>
       <c r="S18" s="18">
-        <v>5503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>7446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
         <v>29</v>
       </c>
@@ -2263,58 +2263,58 @@
         <v>8</v>
       </c>
       <c r="C19" s="37">
-        <v>1231524</v>
+        <v>1273869</v>
       </c>
       <c r="D19" s="37">
-        <v>900719</v>
+        <v>927333</v>
       </c>
       <c r="E19" s="37">
-        <v>330805</v>
+        <v>346536</v>
       </c>
       <c r="F19" s="38">
-        <v>31.018919178599702</v>
+        <v>31.935450877186337</v>
       </c>
       <c r="G19" s="64">
-        <v>17.051742711329464</v>
+        <v>17.765462371124404</v>
       </c>
       <c r="H19" s="64">
-        <v>63.82307388028633</v>
+        <v>65.215155013325727</v>
       </c>
       <c r="I19" s="64">
-        <v>11.392247258997173</v>
+        <v>11.933990707951345</v>
       </c>
       <c r="J19" s="64">
-        <v>5.2644680932549166</v>
+        <v>5.748939191438506</v>
       </c>
       <c r="K19" s="64">
-        <v>25.784580893741229</v>
+        <v>26.460843321389564</v>
       </c>
       <c r="L19" s="42">
-        <v>263601</v>
+        <v>267311</v>
       </c>
       <c r="M19" s="42">
-        <v>365662</v>
+        <v>367373</v>
       </c>
       <c r="N19" s="42">
-        <v>102570</v>
+        <v>111459</v>
       </c>
       <c r="O19" s="42">
-        <v>215216</v>
+        <v>218689</v>
       </c>
       <c r="P19" s="42">
-        <v>83684</v>
+        <v>94510</v>
       </c>
       <c r="Q19" s="42">
-        <v>187760</v>
+        <v>198120</v>
       </c>
       <c r="R19" s="42">
-        <v>4649</v>
+        <v>5627</v>
       </c>
       <c r="S19" s="42">
-        <v>8367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>10758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>16</v>
       </c>
@@ -2322,173 +2322,173 @@
         <v>70</v>
       </c>
       <c r="C20" s="13">
-        <v>942876</v>
+        <v>972038</v>
       </c>
       <c r="D20" s="13">
-        <v>646522</v>
+        <v>665463</v>
       </c>
       <c r="E20" s="13">
-        <v>296354</v>
+        <v>306575</v>
       </c>
       <c r="F20" s="14">
-        <v>30.305084237298779</v>
+        <v>31.192925023132329</v>
       </c>
       <c r="G20" s="44">
-        <v>16.438048587163077</v>
+        <v>17.023398307247302</v>
       </c>
       <c r="H20" s="44">
-        <v>56.946345844239765</v>
+        <v>58.415154369325464</v>
       </c>
       <c r="I20" s="44">
-        <v>13.891302900845515</v>
+        <v>14.370402244703001</v>
       </c>
       <c r="J20" s="44">
-        <v>6.8249695991651702</v>
+        <v>7.1198541330166609</v>
       </c>
       <c r="K20" s="44">
-        <v>27.454904881334404</v>
+        <v>28.287809258873907</v>
       </c>
       <c r="L20" s="18">
-        <v>189586</v>
+        <v>192216</v>
       </c>
       <c r="M20" s="18">
-        <v>293709</v>
+        <v>295118</v>
       </c>
       <c r="N20" s="18">
-        <v>91181</v>
+        <v>94295</v>
       </c>
       <c r="O20" s="18">
-        <v>189210</v>
+        <v>193007</v>
       </c>
       <c r="P20" s="18">
-        <v>41027</v>
+        <v>46609</v>
       </c>
       <c r="Q20" s="18">
-        <v>122259</v>
+        <v>131579</v>
       </c>
       <c r="R20" s="18">
-        <v>4568</v>
+        <v>5591</v>
       </c>
       <c r="S20" s="18">
-        <v>11336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>13623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
       <c r="B21" s="36" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="37">
-        <v>81656</v>
+        <v>85412</v>
       </c>
       <c r="D21" s="37">
-        <v>72145</v>
+        <v>74269</v>
       </c>
       <c r="E21" s="37">
-        <v>9511</v>
+        <v>11143</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K21" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L21" s="41">
-        <v>66432</v>
+        <v>68674</v>
       </c>
       <c r="M21" s="41">
-        <v>6263</v>
+        <v>6440</v>
       </c>
       <c r="N21" s="41">
-        <v>8412</v>
+        <v>9697</v>
       </c>
       <c r="O21" s="41">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R21" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S21" s="41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>35709755</v>
+        <v>36837184</v>
       </c>
       <c r="D22" s="21">
-        <v>27686865</v>
+        <v>28516504</v>
       </c>
       <c r="E22" s="21">
-        <v>8022890</v>
+        <v>8320680</v>
       </c>
       <c r="F22" s="22">
-        <v>33.290801893079554</v>
+        <v>34.288363285161054</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I22" s="22">
-        <v>9.6467563806869805</v>
+        <v>10.004820318071735</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P22" s="25">
-        <v>2900503</v>
+        <v>3239332</v>
       </c>
       <c r="Q22" s="25">
-        <v>4683705</v>
+        <v>4908444</v>
       </c>
       <c r="R22" s="25">
-        <v>152797</v>
+        <v>188101</v>
       </c>
       <c r="S22" s="25">
-        <v>234344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>289167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B25" s="60" t="s">
         <v>31</v>
       </c>
@@ -2511,7 +2511,7 @@
       <c r="S25" s="60"/>
       <c r="T25" s="59"/>
     </row>
-    <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="78" t="s">
         <v>51</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="S26" s="78"/>
       <c r="T26" s="78"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B27" s="61" t="s">
         <v>52</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="T27" s="61"/>
       <c r="U27" s="61"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B28" s="61" t="s">
         <v>53</v>
       </c>
@@ -2582,7 +2582,7 @@
       <c r="T28" s="61"/>
       <c r="U28" s="61"/>
     </row>
-    <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="78" t="s">
         <v>71</v>
       </c>
@@ -2605,12 +2605,12 @@
       <c r="S29" s="78"/>
       <c r="T29" s="78"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -2664,125 +2664,125 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="82" t="s">
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="84"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="85" t="s">
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="90"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="83"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="82" t="s">
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85" t="s">
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="82" t="s">
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="84"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="85" t="s">
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="90"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="83"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="85" t="s">
+      <c r="M3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="85" t="s">
+      <c r="N3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85" t="s">
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="82" t="s">
+      <c r="S3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="85" t="s">
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="91" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="91"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="84"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="F4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="85"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="L4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="85"/>
+      <c r="M4" s="91"/>
       <c r="N4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="Q4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="85"/>
+      <c r="R4" s="91"/>
       <c r="S4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2840,9 +2840,9 @@
       <c r="W4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="85"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X4" s="91"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>21</v>
       </c>
@@ -2850,73 +2850,73 @@
         <v>69</v>
       </c>
       <c r="C5" s="45">
-        <v>2696855</v>
+        <v>2751414</v>
       </c>
       <c r="D5" s="45">
-        <v>1681218</v>
+        <v>1718731</v>
       </c>
       <c r="E5" s="45">
-        <v>243288</v>
+        <v>254936</v>
       </c>
       <c r="F5" s="45">
-        <v>772349</v>
+        <v>777747</v>
       </c>
       <c r="G5" s="45">
-        <v>30862</v>
+        <v>25322</v>
       </c>
       <c r="H5" s="45">
-        <v>963174</v>
+        <v>1003506</v>
       </c>
       <c r="I5" s="45">
-        <v>863925</v>
+        <v>891946</v>
       </c>
       <c r="J5" s="45">
-        <v>63261</v>
+        <v>66408</v>
       </c>
       <c r="K5" s="45">
-        <v>32130</v>
+        <v>39318</v>
       </c>
       <c r="L5" s="45">
-        <v>3858</v>
+        <v>5834</v>
       </c>
       <c r="M5" s="45">
-        <v>22925</v>
+        <v>30019</v>
       </c>
       <c r="N5" s="45">
-        <v>917845</v>
+        <v>981695</v>
       </c>
       <c r="O5" s="45">
-        <v>781260</v>
+        <v>833417</v>
       </c>
       <c r="P5" s="45">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="45">
-        <v>136360</v>
+        <v>148046</v>
       </c>
       <c r="R5" s="45">
-        <v>15174</v>
+        <v>63850</v>
       </c>
       <c r="S5" s="45">
-        <v>56881</v>
+        <v>70718</v>
       </c>
       <c r="T5" s="45">
-        <v>54986</v>
+        <v>68360</v>
       </c>
       <c r="U5" s="45">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V5" s="45">
-        <v>1839</v>
+        <v>2301</v>
       </c>
       <c r="W5" s="45">
         <v>17</v>
       </c>
       <c r="X5" s="45">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>13837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="52" t="s">
         <v>22</v>
       </c>
@@ -2924,73 +2924,73 @@
         <v>0</v>
       </c>
       <c r="C6" s="46">
-        <v>3190029</v>
+        <v>3231481</v>
       </c>
       <c r="D6" s="46">
-        <v>2181265</v>
+        <v>2214893</v>
       </c>
       <c r="E6" s="46">
-        <v>291191</v>
+        <v>297803</v>
       </c>
       <c r="F6" s="46">
-        <v>717573</v>
+        <v>718785</v>
       </c>
       <c r="G6" s="46">
-        <v>36854</v>
+        <v>41452</v>
       </c>
       <c r="H6" s="46">
-        <v>1155005</v>
+        <v>1181873</v>
       </c>
       <c r="I6" s="46">
-        <v>1018893</v>
+        <v>1040730</v>
       </c>
       <c r="J6" s="46">
-        <v>91747</v>
+        <v>94424</v>
       </c>
       <c r="K6" s="46">
-        <v>44364</v>
+        <v>46718</v>
       </c>
       <c r="L6" s="46">
         <v>1</v>
       </c>
       <c r="M6" s="46">
-        <v>24150</v>
+        <v>26868</v>
       </c>
       <c r="N6" s="46">
-        <v>1256597</v>
+        <v>1349459</v>
       </c>
       <c r="O6" s="46">
-        <v>958327</v>
+        <v>1027736</v>
       </c>
       <c r="P6" s="46">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="Q6" s="46">
-        <v>297885</v>
+        <v>321296</v>
       </c>
       <c r="R6" s="46">
-        <v>28502</v>
+        <v>92862</v>
       </c>
       <c r="S6" s="46">
-        <v>47415</v>
+        <v>60134</v>
       </c>
       <c r="T6" s="46">
-        <v>39966</v>
+        <v>51091</v>
       </c>
       <c r="U6" s="46">
         <v>696</v>
       </c>
       <c r="V6" s="46">
-        <v>6753</v>
+        <v>8347</v>
       </c>
       <c r="W6" s="46">
         <v>0</v>
       </c>
       <c r="X6" s="46">
-        <v>2910</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>12719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="50">
         <v>11</v>
       </c>
@@ -2998,73 +2998,73 @@
         <v>2</v>
       </c>
       <c r="C7" s="45">
-        <v>791735</v>
+        <v>802246</v>
       </c>
       <c r="D7" s="45">
-        <v>538333</v>
+        <v>544758</v>
       </c>
       <c r="E7" s="45">
-        <v>67649</v>
+        <v>71734</v>
       </c>
       <c r="F7" s="45">
-        <v>185753</v>
+        <v>185754</v>
       </c>
       <c r="G7" s="45">
-        <v>7519</v>
+        <v>10511</v>
       </c>
       <c r="H7" s="45">
-        <v>395326</v>
+        <v>401134</v>
       </c>
       <c r="I7" s="45">
-        <v>342463</v>
+        <v>347523</v>
       </c>
       <c r="J7" s="45">
-        <v>49704</v>
+        <v>50339</v>
       </c>
       <c r="K7" s="45">
-        <v>325</v>
+        <v>433</v>
       </c>
       <c r="L7" s="45">
-        <v>2834</v>
+        <v>2839</v>
       </c>
       <c r="M7" s="45">
-        <v>6049</v>
+        <v>5808</v>
       </c>
       <c r="N7" s="45">
-        <v>316378</v>
+        <v>342229</v>
       </c>
       <c r="O7" s="45">
-        <v>237001</v>
+        <v>255990</v>
       </c>
       <c r="P7" s="45">
         <v>100</v>
       </c>
       <c r="Q7" s="45">
-        <v>79277</v>
+        <v>86139</v>
       </c>
       <c r="R7" s="45">
-        <v>9964</v>
+        <v>25851</v>
       </c>
       <c r="S7" s="45">
-        <v>18862</v>
+        <v>23211</v>
       </c>
       <c r="T7" s="45">
-        <v>15968</v>
+        <v>19468</v>
       </c>
       <c r="U7" s="45">
         <v>39</v>
       </c>
       <c r="V7" s="45">
-        <v>2855</v>
+        <v>3704</v>
       </c>
       <c r="W7" s="45">
         <v>0</v>
       </c>
       <c r="X7" s="45">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="52">
         <v>12</v>
       </c>
@@ -3072,73 +3072,73 @@
         <v>1</v>
       </c>
       <c r="C8" s="46">
-        <v>473868</v>
+        <v>479582</v>
       </c>
       <c r="D8" s="46">
-        <v>313453</v>
+        <v>318126</v>
       </c>
       <c r="E8" s="46">
-        <v>54045</v>
+        <v>54924</v>
       </c>
       <c r="F8" s="46">
-        <v>106370</v>
+        <v>106532</v>
       </c>
       <c r="G8" s="46">
-        <v>2787</v>
+        <v>4405</v>
       </c>
       <c r="H8" s="46">
-        <v>223766</v>
+        <v>234466</v>
       </c>
       <c r="I8" s="46">
-        <v>192546</v>
+        <v>200856</v>
       </c>
       <c r="J8" s="46">
-        <v>22722</v>
+        <v>23982</v>
       </c>
       <c r="K8" s="46">
-        <v>8048</v>
+        <v>8901</v>
       </c>
       <c r="L8" s="46">
-        <v>450</v>
+        <v>727</v>
       </c>
       <c r="M8" s="46">
-        <v>7038</v>
+        <v>9495</v>
       </c>
       <c r="N8" s="46">
-        <v>261837</v>
+        <v>279886</v>
       </c>
       <c r="O8" s="46">
-        <v>186649</v>
+        <v>199288</v>
       </c>
       <c r="P8" s="46">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="Q8" s="46">
-        <v>74668</v>
+        <v>80043</v>
       </c>
       <c r="R8" s="46">
-        <v>6799</v>
+        <v>18049</v>
       </c>
       <c r="S8" s="46">
-        <v>27063</v>
+        <v>33176</v>
       </c>
       <c r="T8" s="46">
-        <v>25437</v>
+        <v>31067</v>
       </c>
       <c r="U8" s="46">
         <v>46</v>
       </c>
       <c r="V8" s="46">
-        <v>1580</v>
+        <v>2063</v>
       </c>
       <c r="W8" s="46">
         <v>0</v>
       </c>
       <c r="X8" s="46">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>6113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="50" t="s">
         <v>23</v>
       </c>
@@ -3146,73 +3146,73 @@
         <v>68</v>
       </c>
       <c r="C9" s="45">
-        <v>182366</v>
+        <v>184617</v>
       </c>
       <c r="D9" s="45">
-        <v>110274</v>
+        <v>111834</v>
       </c>
       <c r="E9" s="45">
-        <v>12876</v>
+        <v>12879</v>
       </c>
       <c r="F9" s="45">
-        <v>59216</v>
+        <v>59904</v>
       </c>
       <c r="G9" s="45">
-        <v>2078</v>
+        <v>2219</v>
       </c>
       <c r="H9" s="45">
-        <v>82687</v>
+        <v>84963</v>
       </c>
       <c r="I9" s="45">
-        <v>74781</v>
+        <v>76790</v>
       </c>
       <c r="J9" s="45">
-        <v>5009</v>
+        <v>5101</v>
       </c>
       <c r="K9" s="45">
-        <v>1342</v>
+        <v>1472</v>
       </c>
       <c r="L9" s="45">
-        <v>1555</v>
+        <v>1600</v>
       </c>
       <c r="M9" s="45">
-        <v>2224</v>
+        <v>2280</v>
       </c>
       <c r="N9" s="45">
-        <v>52852</v>
+        <v>57090</v>
       </c>
       <c r="O9" s="45">
-        <v>44322</v>
+        <v>47883</v>
       </c>
       <c r="P9" s="45">
         <v>14</v>
       </c>
       <c r="Q9" s="45">
-        <v>8516</v>
+        <v>9193</v>
       </c>
       <c r="R9" s="45">
-        <v>796</v>
+        <v>4238</v>
       </c>
       <c r="S9" s="45">
-        <v>2330</v>
+        <v>2903</v>
       </c>
       <c r="T9" s="45">
-        <v>2185</v>
+        <v>2741</v>
       </c>
       <c r="U9" s="45">
         <v>18</v>
       </c>
       <c r="V9" s="45">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="W9" s="45">
         <v>0</v>
       </c>
       <c r="X9" s="45">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="52" t="s">
         <v>24</v>
       </c>
@@ -3220,73 +3220,73 @@
         <v>3</v>
       </c>
       <c r="C10" s="46">
-        <v>470309</v>
+        <v>476114</v>
       </c>
       <c r="D10" s="46">
-        <v>298984</v>
+        <v>304658</v>
       </c>
       <c r="E10" s="46">
-        <v>51049</v>
+        <v>51180</v>
       </c>
       <c r="F10" s="46">
         <v>120276</v>
       </c>
       <c r="G10" s="46">
-        <v>4893</v>
+        <v>5809</v>
       </c>
       <c r="H10" s="46">
-        <v>158770</v>
+        <v>161583</v>
       </c>
       <c r="I10" s="46">
-        <v>146194</v>
+        <v>148713</v>
       </c>
       <c r="J10" s="46">
-        <v>10554</v>
+        <v>10626</v>
       </c>
       <c r="K10" s="46">
-        <v>1191</v>
+        <v>1407</v>
       </c>
       <c r="L10" s="46">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="M10" s="46">
-        <v>2979</v>
+        <v>2814</v>
       </c>
       <c r="N10" s="46">
-        <v>142458</v>
+        <v>150793</v>
       </c>
       <c r="O10" s="46">
-        <v>115880</v>
+        <v>122647</v>
       </c>
       <c r="P10" s="46">
-        <v>1588</v>
+        <v>1661</v>
       </c>
       <c r="Q10" s="46">
-        <v>24990</v>
+        <v>26485</v>
       </c>
       <c r="R10" s="46">
-        <v>2577</v>
+        <v>8335</v>
       </c>
       <c r="S10" s="46">
-        <v>5652</v>
+        <v>6832</v>
       </c>
       <c r="T10" s="46">
-        <v>5147</v>
+        <v>6229</v>
       </c>
       <c r="U10" s="46">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V10" s="46">
-        <v>494</v>
+        <v>591</v>
       </c>
       <c r="W10" s="46">
         <v>0</v>
       </c>
       <c r="X10" s="46">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="50" t="s">
         <v>25</v>
       </c>
@@ -3294,73 +3294,73 @@
         <v>11</v>
       </c>
       <c r="C11" s="45">
-        <v>1568318</v>
+        <v>1589498</v>
       </c>
       <c r="D11" s="45">
-        <v>952028</v>
+        <v>966347</v>
       </c>
       <c r="E11" s="45">
-        <v>154839</v>
+        <v>160832</v>
       </c>
       <c r="F11" s="45">
-        <v>461451</v>
+        <v>462319</v>
       </c>
       <c r="G11" s="45">
-        <v>21209</v>
+        <v>19620</v>
       </c>
       <c r="H11" s="45">
-        <v>527472</v>
+        <v>537098</v>
       </c>
       <c r="I11" s="45">
-        <v>486399</v>
+        <v>492318</v>
       </c>
       <c r="J11" s="45">
-        <v>26193</v>
+        <v>27084</v>
       </c>
       <c r="K11" s="45">
-        <v>14880</v>
+        <v>17696</v>
       </c>
       <c r="L11" s="45">
         <v>0</v>
       </c>
       <c r="M11" s="45">
-        <v>10569</v>
+        <v>9491</v>
       </c>
       <c r="N11" s="45">
-        <v>517126</v>
+        <v>555583</v>
       </c>
       <c r="O11" s="45">
-        <v>417408</v>
+        <v>447454</v>
       </c>
       <c r="P11" s="45">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="45">
-        <v>99595</v>
+        <v>107991</v>
       </c>
       <c r="R11" s="45">
-        <v>10317</v>
+        <v>38457</v>
       </c>
       <c r="S11" s="45">
-        <v>23857</v>
+        <v>28995</v>
       </c>
       <c r="T11" s="45">
-        <v>22161</v>
+        <v>26851</v>
       </c>
       <c r="U11" s="45">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="V11" s="45">
-        <v>1565</v>
+        <v>1997</v>
       </c>
       <c r="W11" s="45">
         <v>43</v>
       </c>
       <c r="X11" s="45">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="52">
         <v>13</v>
       </c>
@@ -3368,73 +3368,73 @@
         <v>4</v>
       </c>
       <c r="C12" s="46">
-        <v>368190</v>
+        <v>373011</v>
       </c>
       <c r="D12" s="46">
-        <v>264132</v>
+        <v>268027</v>
       </c>
       <c r="E12" s="46">
-        <v>38510</v>
+        <v>39345</v>
       </c>
       <c r="F12" s="46">
-        <v>65548</v>
+        <v>65639</v>
       </c>
       <c r="G12" s="46">
-        <v>4136</v>
+        <v>4705</v>
       </c>
       <c r="H12" s="46">
-        <v>132379</v>
+        <v>137126</v>
       </c>
       <c r="I12" s="46">
-        <v>122023</v>
+        <v>126340</v>
       </c>
       <c r="J12" s="46">
-        <v>9241</v>
+        <v>9357</v>
       </c>
       <c r="K12" s="46">
-        <v>919</v>
+        <v>1003</v>
       </c>
       <c r="L12" s="46">
-        <v>196</v>
+        <v>426</v>
       </c>
       <c r="M12" s="46">
-        <v>3312</v>
+        <v>4578</v>
       </c>
       <c r="N12" s="46">
-        <v>202934</v>
+        <v>215288</v>
       </c>
       <c r="O12" s="46">
-        <v>149260</v>
+        <v>159273</v>
       </c>
       <c r="P12" s="46">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="Q12" s="46">
-        <v>53600</v>
+        <v>55924</v>
       </c>
       <c r="R12" s="46">
-        <v>4228</v>
+        <v>12354</v>
       </c>
       <c r="S12" s="46">
-        <v>10595</v>
+        <v>12956</v>
       </c>
       <c r="T12" s="46">
-        <v>9326</v>
+        <v>11388</v>
       </c>
       <c r="U12" s="46">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="V12" s="46">
-        <v>1248</v>
+        <v>1529</v>
       </c>
       <c r="W12" s="46">
         <v>5</v>
       </c>
       <c r="X12" s="46">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="50" t="s">
         <v>26</v>
       </c>
@@ -3442,73 +3442,73 @@
         <v>5</v>
       </c>
       <c r="C13" s="45">
-        <v>2015347</v>
+        <v>2044626</v>
       </c>
       <c r="D13" s="45">
-        <v>1184700</v>
+        <v>1205085</v>
       </c>
       <c r="E13" s="45">
-        <v>190139</v>
+        <v>192258</v>
       </c>
       <c r="F13" s="45">
-        <v>640508</v>
+        <v>647283</v>
       </c>
       <c r="G13" s="45">
-        <v>26188</v>
+        <v>25621</v>
       </c>
       <c r="H13" s="45">
-        <v>638280</v>
+        <v>655054</v>
       </c>
       <c r="I13" s="45">
-        <v>575418</v>
+        <v>587656</v>
       </c>
       <c r="J13" s="45">
-        <v>41080</v>
+        <v>43138</v>
       </c>
       <c r="K13" s="45">
-        <v>10864</v>
+        <v>12909</v>
       </c>
       <c r="L13" s="45">
-        <v>10918</v>
+        <v>11351</v>
       </c>
       <c r="M13" s="45">
-        <v>12578</v>
+        <v>15329</v>
       </c>
       <c r="N13" s="45">
-        <v>738223</v>
+        <v>792078</v>
       </c>
       <c r="O13" s="45">
-        <v>588801</v>
+        <v>628333</v>
       </c>
       <c r="P13" s="45">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="Q13" s="45">
-        <v>148986</v>
+        <v>163253</v>
       </c>
       <c r="R13" s="45">
-        <v>15693</v>
+        <v>53855</v>
       </c>
       <c r="S13" s="45">
-        <v>26240</v>
+        <v>31867</v>
       </c>
       <c r="T13" s="45">
-        <v>22415</v>
+        <v>27227</v>
       </c>
       <c r="U13" s="45">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="V13" s="45">
-        <v>3365</v>
+        <v>4178</v>
       </c>
       <c r="W13" s="45">
         <v>0</v>
       </c>
       <c r="X13" s="45">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>5627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="52" t="s">
         <v>27</v>
       </c>
@@ -3516,73 +3516,73 @@
         <v>67</v>
       </c>
       <c r="C14" s="46">
-        <v>4515164</v>
+        <v>4565070</v>
       </c>
       <c r="D14" s="46">
-        <v>3032872</v>
+        <v>3066015</v>
       </c>
       <c r="E14" s="46">
-        <v>340220</v>
+        <v>355962</v>
       </c>
       <c r="F14" s="46">
-        <v>1142072</v>
+        <v>1143093</v>
       </c>
       <c r="G14" s="46">
-        <v>40420</v>
+        <v>41147</v>
       </c>
       <c r="H14" s="46">
-        <v>1520580</v>
+        <v>1553336</v>
       </c>
       <c r="I14" s="46">
-        <v>1410221</v>
+        <v>1432729</v>
       </c>
       <c r="J14" s="46">
-        <v>88165</v>
+        <v>96305</v>
       </c>
       <c r="K14" s="46">
-        <v>19375</v>
+        <v>21100</v>
       </c>
       <c r="L14" s="46">
-        <v>2819</v>
+        <v>3202</v>
       </c>
       <c r="M14" s="46">
-        <v>17136</v>
+        <v>18959</v>
       </c>
       <c r="N14" s="46">
-        <v>1809220</v>
+        <v>1948660</v>
       </c>
       <c r="O14" s="46">
-        <v>1363002</v>
+        <v>1463469</v>
       </c>
       <c r="P14" s="46">
-        <v>4922</v>
+        <v>4989</v>
       </c>
       <c r="Q14" s="46">
-        <v>441296</v>
+        <v>480202</v>
       </c>
       <c r="R14" s="46">
-        <v>45986</v>
+        <v>139440</v>
       </c>
       <c r="S14" s="46">
-        <v>60811</v>
+        <v>76935</v>
       </c>
       <c r="T14" s="46">
-        <v>52755</v>
+        <v>67191</v>
       </c>
       <c r="U14" s="46">
-        <v>1206</v>
+        <v>1307</v>
       </c>
       <c r="V14" s="46">
-        <v>6785</v>
+        <v>8366</v>
       </c>
       <c r="W14" s="46">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="X14" s="46">
-        <v>4070</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="50" t="s">
         <v>28</v>
       </c>
@@ -3590,73 +3590,73 @@
         <v>9</v>
       </c>
       <c r="C15" s="45">
-        <v>955209</v>
+        <v>968089</v>
       </c>
       <c r="D15" s="45">
-        <v>629178</v>
+        <v>637729</v>
       </c>
       <c r="E15" s="45">
-        <v>62996</v>
+        <v>67018</v>
       </c>
       <c r="F15" s="45">
-        <v>263035</v>
+        <v>263342</v>
       </c>
       <c r="G15" s="45">
-        <v>10028</v>
+        <v>10977</v>
       </c>
       <c r="H15" s="45">
-        <v>446721</v>
+        <v>457199</v>
       </c>
       <c r="I15" s="45">
-        <v>392381</v>
+        <v>400685</v>
       </c>
       <c r="J15" s="45">
-        <v>33098</v>
+        <v>33887</v>
       </c>
       <c r="K15" s="45">
-        <v>21242</v>
+        <v>22627</v>
       </c>
       <c r="L15" s="45">
         <v>0</v>
       </c>
       <c r="M15" s="45">
-        <v>10352</v>
+        <v>9496</v>
       </c>
       <c r="N15" s="45">
-        <v>351025</v>
+        <v>379420</v>
       </c>
       <c r="O15" s="45">
-        <v>292377</v>
+        <v>313818</v>
       </c>
       <c r="P15" s="45">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="Q15" s="45">
-        <v>58492</v>
+        <v>65399</v>
       </c>
       <c r="R15" s="45">
-        <v>7320</v>
+        <v>28395</v>
       </c>
       <c r="S15" s="45">
-        <v>17743</v>
+        <v>23193</v>
       </c>
       <c r="T15" s="45">
-        <v>17179</v>
+        <v>22476</v>
       </c>
       <c r="U15" s="45">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="V15" s="45">
-        <v>544</v>
+        <v>671</v>
       </c>
       <c r="W15" s="45">
         <v>0</v>
       </c>
       <c r="X15" s="45">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="52">
         <v>10</v>
       </c>
@@ -3664,73 +3664,73 @@
         <v>10</v>
       </c>
       <c r="C16" s="46">
-        <v>276994</v>
+        <v>281024</v>
       </c>
       <c r="D16" s="46">
-        <v>208663</v>
+        <v>211884</v>
       </c>
       <c r="E16" s="46">
-        <v>26289</v>
+        <v>27098</v>
       </c>
       <c r="F16" s="46">
         <v>42042</v>
       </c>
       <c r="G16" s="46">
-        <v>3951</v>
+        <v>3793</v>
       </c>
       <c r="H16" s="46">
-        <v>93684</v>
+        <v>95928</v>
       </c>
       <c r="I16" s="46">
-        <v>84439</v>
+        <v>86130</v>
       </c>
       <c r="J16" s="46">
-        <v>7163</v>
+        <v>7387</v>
       </c>
       <c r="K16" s="46">
-        <v>2082</v>
+        <v>2411</v>
       </c>
       <c r="L16" s="46">
         <v>0</v>
       </c>
       <c r="M16" s="46">
-        <v>1485</v>
+        <v>1876</v>
       </c>
       <c r="N16" s="46">
-        <v>92969</v>
+        <v>100449</v>
       </c>
       <c r="O16" s="46">
-        <v>78193</v>
+        <v>83978</v>
       </c>
       <c r="P16" s="46">
         <v>79</v>
       </c>
       <c r="Q16" s="46">
-        <v>14697</v>
+        <v>16392</v>
       </c>
       <c r="R16" s="46">
-        <v>2192</v>
+        <v>7480</v>
       </c>
       <c r="S16" s="46">
-        <v>3703</v>
+        <v>5045</v>
       </c>
       <c r="T16" s="46">
-        <v>3269</v>
+        <v>4501</v>
       </c>
       <c r="U16" s="46">
         <v>0</v>
       </c>
       <c r="V16" s="46">
-        <v>434</v>
+        <v>544</v>
       </c>
       <c r="W16" s="46">
         <v>0</v>
       </c>
       <c r="X16" s="46">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="50">
         <v>14</v>
       </c>
@@ -3738,73 +3738,73 @@
         <v>6</v>
       </c>
       <c r="C17" s="45">
-        <v>868842</v>
+        <v>874434</v>
       </c>
       <c r="D17" s="45">
-        <v>615773</v>
+        <v>619173</v>
       </c>
       <c r="E17" s="45">
-        <v>73729</v>
+        <v>75514</v>
       </c>
       <c r="F17" s="45">
-        <v>179340</v>
+        <v>179747</v>
       </c>
       <c r="G17" s="45">
-        <v>5233</v>
+        <v>5592</v>
       </c>
       <c r="H17" s="45">
-        <v>489362</v>
+        <v>503027</v>
       </c>
       <c r="I17" s="45">
-        <v>452801</v>
+        <v>464643</v>
       </c>
       <c r="J17" s="45">
-        <v>35090</v>
+        <v>36791</v>
       </c>
       <c r="K17" s="45">
-        <v>1471</v>
+        <v>1593</v>
       </c>
       <c r="L17" s="45">
         <v>0</v>
       </c>
       <c r="M17" s="45">
-        <v>13465</v>
+        <v>13665</v>
       </c>
       <c r="N17" s="45">
-        <v>317424</v>
+        <v>338540</v>
       </c>
       <c r="O17" s="45">
-        <v>230670</v>
+        <v>247149</v>
       </c>
       <c r="P17" s="45">
         <v>161</v>
       </c>
       <c r="Q17" s="45">
-        <v>86593</v>
+        <v>91230</v>
       </c>
       <c r="R17" s="45">
-        <v>6381</v>
+        <v>21116</v>
       </c>
       <c r="S17" s="45">
-        <v>48883</v>
+        <v>54725</v>
       </c>
       <c r="T17" s="45">
-        <v>47947</v>
+        <v>53580</v>
       </c>
       <c r="U17" s="45">
         <v>30</v>
       </c>
       <c r="V17" s="45">
-        <v>868</v>
+        <v>1077</v>
       </c>
       <c r="W17" s="45">
         <v>38</v>
       </c>
       <c r="X17" s="45">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="52">
         <v>15</v>
       </c>
@@ -3812,73 +3812,73 @@
         <v>7</v>
       </c>
       <c r="C18" s="47">
-        <v>522052</v>
+        <v>528559</v>
       </c>
       <c r="D18" s="47">
-        <v>344207</v>
+        <v>348576</v>
       </c>
       <c r="E18" s="47">
-        <v>48579</v>
+        <v>50458</v>
       </c>
       <c r="F18" s="47">
-        <v>129266</v>
+        <v>129525</v>
       </c>
       <c r="G18" s="47">
-        <v>5011</v>
+        <v>6507</v>
       </c>
       <c r="H18" s="47">
-        <v>200574</v>
+        <v>208245</v>
       </c>
       <c r="I18" s="47">
-        <v>173164</v>
+        <v>177112</v>
       </c>
       <c r="J18" s="47">
-        <v>23018</v>
+        <v>25973</v>
       </c>
       <c r="K18" s="47">
-        <v>4392</v>
+        <v>5130</v>
       </c>
       <c r="L18" s="47">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M18" s="47">
-        <v>6735</v>
+        <v>7671</v>
       </c>
       <c r="N18" s="46">
-        <v>195313</v>
+        <v>208504</v>
       </c>
       <c r="O18" s="46">
-        <v>164243</v>
+        <v>175038</v>
       </c>
       <c r="P18" s="46">
         <v>24</v>
       </c>
       <c r="Q18" s="46">
-        <v>31046</v>
+        <v>33442</v>
       </c>
       <c r="R18" s="46">
-        <v>3495</v>
+        <v>13191</v>
       </c>
       <c r="S18" s="46">
-        <v>8405</v>
+        <v>11198</v>
       </c>
       <c r="T18" s="46">
-        <v>7665</v>
+        <v>10257</v>
       </c>
       <c r="U18" s="46">
         <v>26</v>
       </c>
       <c r="V18" s="46">
-        <v>714</v>
+        <v>915</v>
       </c>
       <c r="W18" s="46">
         <v>0</v>
       </c>
       <c r="X18" s="46">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="50" t="s">
         <v>29</v>
       </c>
@@ -3886,73 +3886,73 @@
         <v>8</v>
       </c>
       <c r="C19" s="45">
-        <v>629263</v>
+        <v>634684</v>
       </c>
       <c r="D19" s="45">
-        <v>433397</v>
+        <v>437874</v>
       </c>
       <c r="E19" s="45">
-        <v>50985</v>
+        <v>51922</v>
       </c>
       <c r="F19" s="45">
-        <v>144881</v>
+        <v>144888</v>
       </c>
       <c r="G19" s="45">
-        <v>5340</v>
+        <v>5288</v>
       </c>
       <c r="H19" s="45">
-        <v>317786</v>
+        <v>330148</v>
       </c>
       <c r="I19" s="45">
-        <v>282428</v>
+        <v>292082</v>
       </c>
       <c r="J19" s="45">
-        <v>27967</v>
+        <v>29324</v>
       </c>
       <c r="K19" s="45">
-        <v>7391</v>
+        <v>8742</v>
       </c>
       <c r="L19" s="45">
         <v>0</v>
       </c>
       <c r="M19" s="45">
-        <v>9099</v>
+        <v>9995</v>
       </c>
       <c r="N19" s="45">
-        <v>271456</v>
+        <v>292649</v>
       </c>
       <c r="O19" s="45">
-        <v>218517</v>
+        <v>233187</v>
       </c>
       <c r="P19" s="45">
-        <v>1665</v>
+        <v>2006</v>
       </c>
       <c r="Q19" s="45">
-        <v>51274</v>
+        <v>57456</v>
       </c>
       <c r="R19" s="45">
-        <v>5928</v>
+        <v>21193</v>
       </c>
       <c r="S19" s="45">
-        <v>13019</v>
+        <v>16388</v>
       </c>
       <c r="T19" s="45">
-        <v>11806</v>
+        <v>15041</v>
       </c>
       <c r="U19" s="45">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="V19" s="45">
-        <v>851</v>
+        <v>979</v>
       </c>
       <c r="W19" s="45">
         <v>0</v>
       </c>
       <c r="X19" s="45">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="52">
         <v>16</v>
       </c>
@@ -3960,226 +3960,226 @@
         <v>70</v>
       </c>
       <c r="C20" s="47">
-        <v>483236</v>
+        <v>487275</v>
       </c>
       <c r="D20" s="47">
-        <v>334616</v>
+        <v>337968</v>
       </c>
       <c r="E20" s="47">
-        <v>39585</v>
+        <v>40273</v>
       </c>
       <c r="F20" s="47">
-        <v>109035</v>
+        <v>109034</v>
       </c>
       <c r="G20" s="47">
-        <v>3659</v>
+        <v>3699</v>
       </c>
       <c r="H20" s="47">
-        <v>280450</v>
+        <v>287361</v>
       </c>
       <c r="I20" s="47">
-        <v>259774</v>
+        <v>266682</v>
       </c>
       <c r="J20" s="47">
-        <v>19861</v>
+        <v>19865</v>
       </c>
       <c r="K20" s="47">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L20" s="47">
         <v>59</v>
       </c>
       <c r="M20" s="47">
-        <v>5618</v>
+        <v>5575</v>
       </c>
       <c r="N20" s="47">
-        <v>163286</v>
+        <v>178188</v>
       </c>
       <c r="O20" s="46">
-        <v>137777</v>
+        <v>149873</v>
       </c>
       <c r="P20" s="46">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="46">
-        <v>25449</v>
+        <v>28227</v>
       </c>
       <c r="R20" s="46">
-        <v>4007</v>
+        <v>14902</v>
       </c>
       <c r="S20" s="46">
-        <v>15904</v>
+        <v>19214</v>
       </c>
       <c r="T20" s="46">
-        <v>13976</v>
+        <v>16660</v>
       </c>
       <c r="U20" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V20" s="46">
-        <v>1915</v>
+        <v>2540</v>
       </c>
       <c r="W20" s="46">
         <v>10</v>
       </c>
       <c r="X20" s="46">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="50"/>
       <c r="B21" s="51" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="45">
-        <v>72145</v>
+        <v>74269</v>
       </c>
       <c r="D21" s="45">
-        <v>1354</v>
+        <v>1383</v>
       </c>
       <c r="E21" s="45">
-        <v>53061</v>
+        <v>55054</v>
       </c>
       <c r="F21" s="45">
-        <v>17730</v>
+        <v>17832</v>
       </c>
       <c r="G21" s="45">
-        <v>1573</v>
+        <v>2066</v>
       </c>
       <c r="H21" s="45">
-        <v>9511</v>
+        <v>11143</v>
       </c>
       <c r="I21" s="55">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J21" s="55">
-        <v>8866</v>
+        <v>10188</v>
       </c>
       <c r="K21" s="55">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="L21" s="55">
-        <v>550</v>
+        <v>846</v>
       </c>
       <c r="M21" s="55">
-        <v>1259</v>
+        <v>1518</v>
       </c>
       <c r="N21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W21" s="56"/>
       <c r="X21" s="56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="57"/>
       <c r="B22" s="58" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="57">
-        <v>20079922</v>
+        <v>20345993</v>
       </c>
       <c r="D22" s="57">
-        <v>13124447</v>
+        <v>13313061</v>
       </c>
       <c r="E22" s="57">
-        <v>1799030</v>
+        <v>1859190</v>
       </c>
       <c r="F22" s="57">
-        <v>5156445</v>
+        <v>5173742</v>
       </c>
       <c r="G22" s="57">
-        <v>211741</v>
+        <v>218733</v>
       </c>
       <c r="H22" s="57">
-        <v>7635527</v>
+        <v>7843190</v>
       </c>
       <c r="I22" s="57">
-        <v>6877858</v>
+        <v>7032945</v>
       </c>
       <c r="J22" s="57">
-        <v>562739</v>
+        <v>590179</v>
       </c>
       <c r="K22" s="57">
-        <v>170859</v>
+        <v>192314</v>
       </c>
       <c r="L22" s="57">
-        <v>24071</v>
+        <v>27752</v>
       </c>
       <c r="M22" s="57">
-        <v>156973</v>
+        <v>175437</v>
       </c>
       <c r="N22" s="57">
-        <v>7606943</v>
+        <v>8170511</v>
       </c>
       <c r="O22" s="57">
-        <v>5963687</v>
+        <v>6388533</v>
       </c>
       <c r="P22" s="57">
-        <v>10532</v>
+        <v>11260</v>
       </c>
       <c r="Q22" s="57">
-        <v>1632724</v>
+        <v>1770718</v>
       </c>
       <c r="R22" s="57">
-        <v>169359</v>
+        <v>563568</v>
       </c>
       <c r="S22" s="57">
-        <v>387363</v>
+        <v>477490</v>
       </c>
       <c r="T22" s="57">
-        <v>352188</v>
+        <v>434128</v>
       </c>
       <c r="U22" s="57">
-        <v>3060</v>
+        <v>3232</v>
       </c>
       <c r="V22" s="57">
-        <v>31937</v>
+        <v>39946</v>
       </c>
       <c r="W22" s="57">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="X22" s="57">
-        <v>19539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>90127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="78" t="s">
         <v>66</v>
       </c>
@@ -4205,13 +4205,19 @@
       <c r="V27" s="78"/>
       <c r="W27" s="62"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B27:V27"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:W3"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:M1"/>
@@ -4223,12 +4229,6 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="X3:X4"/>
-    <mergeCell ref="B27:V27"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4236,295 +4236,274 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD2E263-4F37-4CCD-9472-109108C9F925}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="C1" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="D1" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="68"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="69">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="68">
         <v>44192</v>
       </c>
       <c r="B2" s="45">
         <v>23986</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="45">
         <v>23986</v>
       </c>
-      <c r="E2" s="68"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="71">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="70">
         <v>44193</v>
       </c>
       <c r="B3" s="46">
-        <v>18449</v>
-      </c>
-      <c r="C3" s="72"/>
+        <v>18448</v>
+      </c>
+      <c r="C3" s="71"/>
       <c r="D3" s="46">
-        <v>18449</v>
-      </c>
-      <c r="E3" s="68"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="69">
+        <v>18448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="68">
         <v>44194</v>
       </c>
       <c r="B4" s="45">
-        <v>50011</v>
-      </c>
-      <c r="C4" s="70"/>
+        <v>50010</v>
+      </c>
+      <c r="C4" s="69"/>
       <c r="D4" s="45">
-        <v>50011</v>
-      </c>
-      <c r="E4" s="68"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="71">
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="70">
         <v>44195</v>
       </c>
       <c r="B5" s="46">
         <v>62552</v>
       </c>
-      <c r="C5" s="72"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="46">
         <v>62552</v>
       </c>
-      <c r="E5" s="68"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="69">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="68">
         <v>44196</v>
       </c>
       <c r="B6" s="45">
         <v>49870</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="45">
         <v>49870</v>
       </c>
-      <c r="E6" s="68"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="71">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="70">
         <v>44197</v>
       </c>
       <c r="B7" s="46">
-        <v>18772</v>
-      </c>
-      <c r="C7" s="72"/>
+        <v>18771</v>
+      </c>
+      <c r="C7" s="71"/>
       <c r="D7" s="46">
-        <v>18772</v>
-      </c>
-      <c r="E7" s="68"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
+        <v>18771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="68">
         <v>44198</v>
       </c>
       <c r="B8" s="45">
-        <v>52139</v>
-      </c>
-      <c r="C8" s="70"/>
+        <v>52138</v>
+      </c>
+      <c r="C8" s="69"/>
       <c r="D8" s="45">
-        <v>52139</v>
-      </c>
-      <c r="E8" s="68"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="71">
+        <v>52138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="70">
         <v>44199</v>
       </c>
       <c r="B9" s="46">
         <v>23772</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="46">
         <v>23772</v>
       </c>
-      <c r="E9" s="68"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="69">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="68">
         <v>44200</v>
       </c>
       <c r="B10" s="45">
-        <v>48027</v>
-      </c>
-      <c r="C10" s="70"/>
+        <v>48026</v>
+      </c>
+      <c r="C10" s="69"/>
       <c r="D10" s="45">
-        <v>48027</v>
-      </c>
-      <c r="E10" s="68"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="71">
+        <v>48026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="70">
         <v>44201</v>
       </c>
       <c r="B11" s="46">
         <v>53685</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="46">
         <v>53685</v>
       </c>
-      <c r="E11" s="68"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="69">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="68">
         <v>44202</v>
       </c>
       <c r="B12" s="45">
-        <v>62669</v>
-      </c>
-      <c r="C12" s="70"/>
+        <v>62668</v>
+      </c>
+      <c r="C12" s="69"/>
       <c r="D12" s="45">
-        <v>62669</v>
-      </c>
-      <c r="E12" s="68"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
+        <v>62668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="70">
         <v>44203</v>
       </c>
       <c r="B13" s="46">
-        <v>55942</v>
-      </c>
-      <c r="C13" s="72"/>
+        <v>55941</v>
+      </c>
+      <c r="C13" s="71"/>
       <c r="D13" s="46">
-        <v>55942</v>
-      </c>
-      <c r="E13" s="68"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="69">
+        <v>55941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="68">
         <v>44204</v>
       </c>
       <c r="B14" s="45">
-        <v>62738</v>
-      </c>
-      <c r="C14" s="70"/>
+        <v>62737</v>
+      </c>
+      <c r="C14" s="69"/>
       <c r="D14" s="45">
-        <v>62738</v>
-      </c>
-      <c r="E14" s="68"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="73">
+        <v>62737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="72">
         <v>44205</v>
       </c>
       <c r="B15" s="47">
-        <v>61039</v>
-      </c>
-      <c r="C15" s="74"/>
+        <v>61038</v>
+      </c>
+      <c r="C15" s="73"/>
       <c r="D15" s="47">
-        <v>61039</v>
-      </c>
-      <c r="E15" s="68"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="69">
+        <v>61038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="68">
         <v>44206</v>
       </c>
       <c r="B16" s="45">
         <v>35506</v>
       </c>
-      <c r="C16" s="70"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="45">
         <v>35506</v>
       </c>
-      <c r="E16" s="68"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="73">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="72">
         <v>44207</v>
       </c>
       <c r="B17" s="47">
-        <v>67531</v>
-      </c>
-      <c r="C17" s="74"/>
+        <v>67529</v>
+      </c>
+      <c r="C17" s="73"/>
       <c r="D17" s="47">
-        <v>67531</v>
-      </c>
-      <c r="E17" s="68"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="69">
+        <v>67529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="68">
         <v>44208</v>
       </c>
       <c r="B18" s="45">
-        <v>82590</v>
-      </c>
-      <c r="C18" s="70"/>
+        <v>82589</v>
+      </c>
+      <c r="C18" s="69"/>
       <c r="D18" s="45">
-        <v>82590</v>
-      </c>
-      <c r="E18" s="68"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="71">
+        <v>82589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="70">
         <v>44209</v>
       </c>
       <c r="B19" s="46">
-        <v>111511</v>
-      </c>
-      <c r="C19" s="72"/>
+        <v>111513</v>
+      </c>
+      <c r="C19" s="71"/>
       <c r="D19" s="46">
-        <v>111511</v>
-      </c>
-      <c r="E19" s="68"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69">
+        <v>111513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="68">
         <v>44210</v>
       </c>
       <c r="B20" s="45">
-        <v>82881</v>
-      </c>
-      <c r="C20" s="70"/>
+        <v>82888</v>
+      </c>
+      <c r="C20" s="69"/>
       <c r="D20" s="45">
-        <v>82881</v>
-      </c>
-      <c r="E20" s="68"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="71">
+        <v>82888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="70">
         <v>44211</v>
       </c>
       <c r="B21" s="46">
-        <v>90927</v>
+        <v>90925</v>
       </c>
       <c r="C21" s="46">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D21" s="46">
-        <v>91537</v>
-      </c>
-      <c r="E21" s="68"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="69">
+        <v>91534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="68">
         <v>44212</v>
       </c>
       <c r="B22" s="45">
@@ -4536,115 +4515,107 @@
       <c r="D22" s="45">
         <v>57571</v>
       </c>
-      <c r="E22" s="68"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="71">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="70">
         <v>44213</v>
       </c>
       <c r="B23" s="46">
         <v>31657</v>
       </c>
       <c r="C23" s="46">
-        <v>17344</v>
+        <v>17343</v>
       </c>
       <c r="D23" s="46">
-        <v>49001</v>
-      </c>
-      <c r="E23" s="68"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="69">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="68">
         <v>44214</v>
       </c>
       <c r="B24" s="45">
-        <v>66845</v>
+        <v>66856</v>
       </c>
       <c r="C24" s="45">
         <v>15772</v>
       </c>
       <c r="D24" s="45">
-        <v>82617</v>
-      </c>
-      <c r="E24" s="68"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="71">
+        <v>82628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="70">
         <v>44215</v>
       </c>
       <c r="B25" s="46">
-        <v>82822</v>
+        <v>82830</v>
       </c>
       <c r="C25" s="46">
-        <v>34865</v>
+        <v>34882</v>
       </c>
       <c r="D25" s="46">
-        <v>117687</v>
-      </c>
-      <c r="E25" s="68"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="69">
+        <v>117712</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="68">
         <v>44216</v>
       </c>
       <c r="B26" s="45">
-        <v>80501</v>
+        <v>80512</v>
       </c>
       <c r="C26" s="45">
-        <v>51514</v>
+        <v>51513</v>
       </c>
       <c r="D26" s="45">
-        <v>132015</v>
-      </c>
-      <c r="E26" s="68"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="71">
+        <v>132025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="70">
         <v>44217</v>
       </c>
       <c r="B27" s="46">
-        <v>65764</v>
+        <v>65873</v>
       </c>
       <c r="C27" s="46">
         <v>41855</v>
       </c>
       <c r="D27" s="46">
-        <v>107619</v>
-      </c>
-      <c r="E27" s="68"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="69">
+        <v>107728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="68">
         <v>44218</v>
       </c>
       <c r="B28" s="45">
         <v>68330</v>
       </c>
       <c r="C28" s="45">
-        <v>35563</v>
+        <v>35562</v>
       </c>
       <c r="D28" s="45">
-        <v>103893</v>
-      </c>
-      <c r="E28" s="68"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="71">
+        <v>103892</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="70">
         <v>44219</v>
       </c>
       <c r="B29" s="46">
         <v>40054</v>
       </c>
       <c r="C29" s="46">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="D29" s="46">
-        <v>85015</v>
-      </c>
-      <c r="E29" s="68"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="69">
+        <v>85013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="68">
         <v>44220</v>
       </c>
       <c r="B30" s="45">
@@ -4656,10 +4627,9 @@
       <c r="D30" s="45">
         <v>49224</v>
       </c>
-      <c r="E30" s="68"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="73">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="72">
         <v>44221</v>
       </c>
       <c r="B31" s="47">
@@ -4671,190 +4641,177 @@
       <c r="D31" s="47">
         <v>91703</v>
       </c>
-      <c r="E31" s="68"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="69">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="68">
         <v>44222</v>
       </c>
       <c r="B32" s="45">
-        <v>50244</v>
+        <v>50241</v>
       </c>
       <c r="C32" s="45">
-        <v>48429</v>
+        <v>48430</v>
       </c>
       <c r="D32" s="45">
-        <v>98673</v>
-      </c>
-      <c r="E32" s="68"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="73">
+        <v>98671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="72">
         <v>44223</v>
       </c>
       <c r="B33" s="47">
-        <v>51519</v>
+        <v>51517</v>
       </c>
       <c r="C33" s="47">
-        <v>59638</v>
+        <v>59637</v>
       </c>
       <c r="D33" s="47">
-        <v>111157</v>
-      </c>
-      <c r="E33" s="68"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="69">
+        <v>111154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="68">
         <v>44224</v>
       </c>
       <c r="B34" s="45">
         <v>45127</v>
       </c>
       <c r="C34" s="45">
-        <v>46041</v>
+        <v>46044</v>
       </c>
       <c r="D34" s="45">
-        <v>91168</v>
-      </c>
-      <c r="E34" s="68"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="71">
+        <v>91171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="70">
         <v>44225</v>
       </c>
       <c r="B35" s="46">
-        <v>51469</v>
+        <v>51468</v>
       </c>
       <c r="C35" s="46">
-        <v>57648</v>
+        <v>57653</v>
       </c>
       <c r="D35" s="46">
-        <v>109117</v>
-      </c>
-      <c r="E35" s="68"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="69">
+        <v>109121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="68">
         <v>44226</v>
       </c>
       <c r="B36" s="45">
-        <v>36310</v>
+        <v>36311</v>
       </c>
       <c r="C36" s="45">
-        <v>52162</v>
+        <v>52161</v>
       </c>
       <c r="D36" s="45">
         <v>88472</v>
       </c>
-      <c r="E36" s="68"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="71">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="70">
         <v>44227</v>
       </c>
       <c r="B37" s="46">
         <v>25986</v>
       </c>
       <c r="C37" s="46">
-        <v>30532</v>
+        <v>30531</v>
       </c>
       <c r="D37" s="46">
-        <v>56518</v>
-      </c>
-      <c r="E37" s="68"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="69">
+        <v>56517</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="68">
         <v>44228</v>
       </c>
       <c r="B38" s="45">
-        <v>59163</v>
+        <v>59161</v>
       </c>
       <c r="C38" s="45">
         <v>61490</v>
       </c>
       <c r="D38" s="45">
-        <v>120653</v>
-      </c>
-      <c r="E38" s="68"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="71">
+        <v>120651</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="70">
         <v>44229</v>
       </c>
       <c r="B39" s="46">
         <v>64222</v>
       </c>
       <c r="C39" s="46">
-        <v>67429</v>
+        <v>67457</v>
       </c>
       <c r="D39" s="46">
-        <v>131651</v>
-      </c>
-      <c r="E39" s="68"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="69">
+        <v>131679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="68">
         <v>44230</v>
       </c>
       <c r="B40" s="45">
-        <v>64164</v>
+        <v>64162</v>
       </c>
       <c r="C40" s="45">
-        <v>95291</v>
+        <v>95304</v>
       </c>
       <c r="D40" s="45">
-        <v>159455</v>
-      </c>
-      <c r="E40" s="68"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="71">
+        <v>159466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="70">
         <v>44231</v>
       </c>
       <c r="B41" s="46">
         <v>61086</v>
       </c>
       <c r="C41" s="46">
-        <v>70679</v>
+        <v>70688</v>
       </c>
       <c r="D41" s="46">
-        <v>131765</v>
-      </c>
-      <c r="E41" s="68"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="69">
+        <v>131774</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="68">
         <v>44232</v>
       </c>
       <c r="B42" s="45">
-        <v>67666</v>
+        <v>67663</v>
       </c>
       <c r="C42" s="45">
-        <v>77049</v>
+        <v>77047</v>
       </c>
       <c r="D42" s="45">
-        <v>144715</v>
-      </c>
-      <c r="E42" s="68"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="71">
+        <v>144710</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="70">
         <v>44233</v>
       </c>
       <c r="B43" s="46">
-        <v>47175</v>
+        <v>47174</v>
       </c>
       <c r="C43" s="46">
         <v>52964</v>
       </c>
       <c r="D43" s="46">
-        <v>100139</v>
-      </c>
-      <c r="E43" s="68"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="69">
+        <v>100138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="68">
         <v>44234</v>
       </c>
       <c r="B44" s="45">
@@ -4866,205 +4823,191 @@
       <c r="D44" s="45">
         <v>54260</v>
       </c>
-      <c r="E44" s="68"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="71">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="70">
         <v>44235</v>
       </c>
       <c r="B45" s="46">
-        <v>53181</v>
+        <v>53179</v>
       </c>
       <c r="C45" s="46">
-        <v>56748</v>
+        <v>56778</v>
       </c>
       <c r="D45" s="46">
-        <v>109929</v>
-      </c>
-      <c r="E45" s="68"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="69">
+        <v>109957</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="68">
         <v>44236</v>
       </c>
       <c r="B46" s="45">
-        <v>59669</v>
+        <v>59710</v>
       </c>
       <c r="C46" s="45">
-        <v>74218</v>
+        <v>74234</v>
       </c>
       <c r="D46" s="45">
-        <v>133887</v>
-      </c>
-      <c r="E46" s="68"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="73">
+        <v>133944</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="72">
         <v>44237</v>
       </c>
       <c r="B47" s="47">
         <v>75163</v>
       </c>
       <c r="C47" s="47">
-        <v>76603</v>
+        <v>76614</v>
       </c>
       <c r="D47" s="47">
-        <v>151766</v>
-      </c>
-      <c r="E47" s="68"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="69">
+        <v>151777</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="68">
         <v>44238</v>
       </c>
       <c r="B48" s="45">
-        <v>73845</v>
+        <v>73843</v>
       </c>
       <c r="C48" s="45">
         <v>67325</v>
       </c>
       <c r="D48" s="45">
-        <v>141170</v>
-      </c>
-      <c r="E48" s="68"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="73">
+        <v>141168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="72">
         <v>44239</v>
       </c>
       <c r="B49" s="47">
-        <v>81423</v>
+        <v>81414</v>
       </c>
       <c r="C49" s="47">
-        <v>75927</v>
+        <v>75926</v>
       </c>
       <c r="D49" s="47">
-        <v>157350</v>
-      </c>
-      <c r="E49" s="68"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="69">
+        <v>157340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="68">
         <v>44240</v>
       </c>
       <c r="B50" s="45">
         <v>62181</v>
       </c>
       <c r="C50" s="45">
-        <v>45591</v>
+        <v>45590</v>
       </c>
       <c r="D50" s="45">
-        <v>107772</v>
-      </c>
-      <c r="E50" s="68"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="71">
+        <v>107771</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="70">
         <v>44241</v>
       </c>
       <c r="B51" s="46">
-        <v>40048</v>
+        <v>40049</v>
       </c>
       <c r="C51" s="46">
-        <v>25262</v>
+        <v>25263</v>
       </c>
       <c r="D51" s="46">
-        <v>65310</v>
-      </c>
-      <c r="E51" s="68"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="69">
+        <v>65312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="68">
         <v>44242</v>
       </c>
       <c r="B52" s="45">
-        <v>71144</v>
+        <v>71142</v>
       </c>
       <c r="C52" s="45">
         <v>55627</v>
       </c>
       <c r="D52" s="45">
-        <v>126771</v>
-      </c>
-      <c r="E52" s="68"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="71">
+        <v>126769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="70">
         <v>44243</v>
       </c>
       <c r="B53" s="46">
-        <v>81988</v>
+        <v>81954</v>
       </c>
       <c r="C53" s="46">
-        <v>54456</v>
+        <v>54654</v>
       </c>
       <c r="D53" s="46">
-        <v>136444</v>
-      </c>
-      <c r="E53" s="68"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="69">
+        <v>136608</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="68">
         <v>44244</v>
       </c>
       <c r="B54" s="45">
-        <v>93380</v>
+        <v>93381</v>
       </c>
       <c r="C54" s="45">
-        <v>55659</v>
+        <v>55657</v>
       </c>
       <c r="D54" s="45">
-        <v>149039</v>
-      </c>
-      <c r="E54" s="68"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="71">
+        <v>149038</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="70">
         <v>44245</v>
       </c>
       <c r="B55" s="46">
-        <v>91431</v>
+        <v>91442</v>
       </c>
       <c r="C55" s="46">
         <v>51244</v>
       </c>
       <c r="D55" s="46">
-        <v>142675</v>
-      </c>
-      <c r="E55" s="68"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="69">
+        <v>142686</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="68">
         <v>44246</v>
       </c>
       <c r="B56" s="45">
         <v>99745</v>
       </c>
       <c r="C56" s="45">
-        <v>54772</v>
+        <v>54770</v>
       </c>
       <c r="D56" s="45">
-        <v>154517</v>
-      </c>
-      <c r="E56" s="68"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="71">
+        <v>154515</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="70">
         <v>44247</v>
       </c>
       <c r="B57" s="46">
         <v>76311</v>
       </c>
       <c r="C57" s="46">
-        <v>37111</v>
+        <v>37110</v>
       </c>
       <c r="D57" s="46">
-        <v>113422</v>
-      </c>
-      <c r="E57" s="68"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="69">
+        <v>113421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="68">
         <v>44248</v>
       </c>
       <c r="B58" s="45">
@@ -5076,835 +5019,779 @@
       <c r="D58" s="45">
         <v>86163</v>
       </c>
-      <c r="E58" s="68"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="71">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="70">
         <v>44249</v>
       </c>
       <c r="B59" s="46">
-        <v>100176</v>
+        <v>100181</v>
       </c>
       <c r="C59" s="46">
         <v>60117</v>
       </c>
       <c r="D59" s="46">
-        <v>160293</v>
-      </c>
-      <c r="E59" s="68"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="69">
+        <v>160298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="68">
         <v>44250</v>
       </c>
       <c r="B60" s="45">
-        <v>107365</v>
+        <v>107386</v>
       </c>
       <c r="C60" s="45">
-        <v>59703</v>
+        <v>59780</v>
       </c>
       <c r="D60" s="45">
-        <v>167068</v>
-      </c>
-      <c r="E60" s="68"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="71">
+        <v>167166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="70">
         <v>44251</v>
       </c>
       <c r="B61" s="46">
-        <v>116404</v>
+        <v>116413</v>
       </c>
       <c r="C61" s="46">
-        <v>59603</v>
+        <v>59600</v>
       </c>
       <c r="D61" s="46">
-        <v>176007</v>
-      </c>
-      <c r="E61" s="68"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="69">
+        <v>176013</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="68">
         <v>44252</v>
       </c>
       <c r="B62" s="45">
-        <v>130633</v>
+        <v>130632</v>
       </c>
       <c r="C62" s="45">
         <v>58676</v>
       </c>
       <c r="D62" s="45">
-        <v>189309</v>
-      </c>
-      <c r="E62" s="68"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="73">
+        <v>189308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="72">
         <v>44253</v>
       </c>
       <c r="B63" s="47">
-        <v>144334</v>
+        <v>144377</v>
       </c>
       <c r="C63" s="47">
         <v>65427</v>
       </c>
       <c r="D63" s="47">
-        <v>209761</v>
-      </c>
-      <c r="E63" s="68"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="69">
+        <v>209804</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="68">
         <v>44254</v>
       </c>
       <c r="B64" s="45">
-        <v>108540</v>
+        <v>108539</v>
       </c>
       <c r="C64" s="45">
-        <v>40020</v>
+        <v>40019</v>
       </c>
       <c r="D64" s="45">
-        <v>148560</v>
-      </c>
-      <c r="E64" s="68"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="73">
+        <v>148558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="72">
         <v>44255</v>
       </c>
       <c r="B65" s="47">
         <v>83824</v>
       </c>
       <c r="C65" s="47">
-        <v>24292</v>
+        <v>24291</v>
       </c>
       <c r="D65" s="47">
-        <v>108116</v>
-      </c>
-      <c r="E65" s="68"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="69">
+        <v>108115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="68">
         <v>44256</v>
       </c>
       <c r="B66" s="45">
-        <v>146444</v>
+        <v>146439</v>
       </c>
       <c r="C66" s="45">
-        <v>49367</v>
+        <v>49368</v>
       </c>
       <c r="D66" s="45">
-        <v>195811</v>
-      </c>
-      <c r="E66" s="68"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="71">
+        <v>195807</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="70">
         <v>44257</v>
       </c>
       <c r="B67" s="46">
-        <v>166185</v>
+        <v>166187</v>
       </c>
       <c r="C67" s="46">
-        <v>53648</v>
+        <v>53687</v>
       </c>
       <c r="D67" s="46">
-        <v>219833</v>
-      </c>
-      <c r="E67" s="68"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="69">
+        <v>219874</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="68">
         <v>44258</v>
       </c>
       <c r="B68" s="45">
-        <v>174779</v>
+        <v>174783</v>
       </c>
       <c r="C68" s="45">
-        <v>68991</v>
+        <v>68989</v>
       </c>
       <c r="D68" s="45">
-        <v>243770</v>
-      </c>
-      <c r="E68" s="68"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="71">
+        <v>243772</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="70">
         <v>44259</v>
       </c>
       <c r="B69" s="46">
-        <v>180445</v>
+        <v>180457</v>
       </c>
       <c r="C69" s="46">
-        <v>62658</v>
+        <v>62680</v>
       </c>
       <c r="D69" s="46">
-        <v>243103</v>
-      </c>
-      <c r="E69" s="68"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="69">
+        <v>243137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="68">
         <v>44260</v>
       </c>
       <c r="B70" s="45">
-        <v>201684</v>
+        <v>201690</v>
       </c>
       <c r="C70" s="45">
-        <v>67428</v>
+        <v>67425</v>
       </c>
       <c r="D70" s="45">
-        <v>269112</v>
-      </c>
-      <c r="E70" s="68"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="71">
+        <v>269115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="70">
         <v>44261</v>
       </c>
       <c r="B71" s="46">
-        <v>153161</v>
+        <v>153162</v>
       </c>
       <c r="C71" s="46">
         <v>49301</v>
       </c>
       <c r="D71" s="46">
-        <v>202462</v>
-      </c>
-      <c r="E71" s="68"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="69">
+        <v>202463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="68">
         <v>44262</v>
       </c>
       <c r="B72" s="45">
-        <v>115921</v>
+        <v>115924</v>
       </c>
       <c r="C72" s="45">
-        <v>34468</v>
+        <v>34463</v>
       </c>
       <c r="D72" s="45">
-        <v>150389</v>
-      </c>
-      <c r="E72" s="68"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="71">
+        <v>150387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="70">
         <v>44263</v>
       </c>
       <c r="B73" s="46">
-        <v>186654</v>
+        <v>186682</v>
       </c>
       <c r="C73" s="46">
         <v>52505</v>
       </c>
       <c r="D73" s="46">
-        <v>239159</v>
-      </c>
-      <c r="E73" s="68"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="69">
+        <v>239187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="68">
         <v>44264</v>
       </c>
       <c r="B74" s="45">
-        <v>195473</v>
+        <v>195668</v>
       </c>
       <c r="C74" s="45">
-        <v>54776</v>
+        <v>54773</v>
       </c>
       <c r="D74" s="45">
-        <v>250249</v>
-      </c>
-      <c r="E74" s="68"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="71">
+        <v>250441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="70">
         <v>44265</v>
       </c>
       <c r="B75" s="46">
-        <v>217499</v>
+        <v>217545</v>
       </c>
       <c r="C75" s="46">
         <v>65695</v>
       </c>
       <c r="D75" s="46">
-        <v>283194</v>
-      </c>
-      <c r="E75" s="68"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="69">
+        <v>283240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="68">
         <v>44266</v>
       </c>
       <c r="B76" s="45">
-        <v>220584</v>
+        <v>220589</v>
       </c>
       <c r="C76" s="45">
-        <v>60911</v>
+        <v>60909</v>
       </c>
       <c r="D76" s="45">
-        <v>281495</v>
-      </c>
-      <c r="E76" s="68"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="71">
+        <v>281498</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="70">
         <v>44267</v>
       </c>
       <c r="B77" s="46">
-        <v>252230</v>
+        <v>252303</v>
       </c>
       <c r="C77" s="46">
-        <v>71656</v>
+        <v>71658</v>
       </c>
       <c r="D77" s="46">
-        <v>323886</v>
-      </c>
-      <c r="E77" s="68"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="69">
+        <v>323961</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="68">
         <v>44268</v>
       </c>
       <c r="B78" s="45">
-        <v>197077</v>
+        <v>197074</v>
       </c>
       <c r="C78" s="45">
-        <v>49453</v>
+        <v>49451</v>
       </c>
       <c r="D78" s="45">
-        <v>246530</v>
-      </c>
-      <c r="E78" s="68"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="73">
+        <v>246525</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="72">
         <v>44269</v>
       </c>
       <c r="B79" s="47">
         <v>135185</v>
       </c>
       <c r="C79" s="47">
-        <v>35996</v>
+        <v>35995</v>
       </c>
       <c r="D79" s="47">
-        <v>171181</v>
-      </c>
-      <c r="E79" s="68"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="69">
+        <v>171180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="68">
         <v>44270</v>
       </c>
       <c r="B80" s="45">
-        <v>189401</v>
+        <v>189396</v>
       </c>
       <c r="C80" s="45">
-        <v>58866</v>
+        <v>58865</v>
       </c>
       <c r="D80" s="45">
-        <v>248267</v>
-      </c>
-      <c r="E80" s="68"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="73">
+        <v>248261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="72">
         <v>44271</v>
       </c>
       <c r="B81" s="47">
         <v>112136</v>
       </c>
       <c r="C81" s="47">
-        <v>67021</v>
+        <v>67022</v>
       </c>
       <c r="D81" s="47">
-        <v>179157</v>
-      </c>
-      <c r="E81" s="68"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="69">
+        <v>179158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="68">
         <v>44272</v>
       </c>
       <c r="B82" s="45">
-        <v>125748</v>
+        <v>125749</v>
       </c>
       <c r="C82" s="45">
-        <v>79463</v>
+        <v>79464</v>
       </c>
       <c r="D82" s="45">
-        <v>205211</v>
-      </c>
-      <c r="E82" s="68"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="71">
+        <v>205213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="70">
         <v>44273</v>
       </c>
       <c r="B83" s="46">
-        <v>119353</v>
+        <v>119355</v>
       </c>
       <c r="C83" s="46">
-        <v>75346</v>
+        <v>75344</v>
       </c>
       <c r="D83" s="46">
         <v>194699</v>
       </c>
-      <c r="E83" s="68"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="69">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="68">
         <v>44274</v>
       </c>
       <c r="B84" s="45">
-        <v>161059</v>
+        <v>161060</v>
       </c>
       <c r="C84" s="45">
-        <v>82843</v>
+        <v>82842</v>
       </c>
       <c r="D84" s="45">
         <v>243902</v>
       </c>
-      <c r="E84" s="68"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="71">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="70">
         <v>44275</v>
       </c>
       <c r="B85" s="46">
-        <v>166332</v>
+        <v>166331</v>
       </c>
       <c r="C85" s="46">
-        <v>53892</v>
+        <v>53891</v>
       </c>
       <c r="D85" s="46">
-        <v>220224</v>
-      </c>
-      <c r="E85" s="68"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="69">
+        <v>220222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="68">
         <v>44276</v>
       </c>
       <c r="B86" s="45">
-        <v>127330</v>
+        <v>127329</v>
       </c>
       <c r="C86" s="45">
-        <v>38773</v>
+        <v>38772</v>
       </c>
       <c r="D86" s="45">
-        <v>166103</v>
-      </c>
-      <c r="E86" s="68"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="71">
+        <v>166101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="70">
         <v>44277</v>
       </c>
       <c r="B87" s="46">
-        <v>189990</v>
+        <v>189997</v>
       </c>
       <c r="C87" s="46">
         <v>76166</v>
       </c>
       <c r="D87" s="46">
-        <v>266156</v>
-      </c>
-      <c r="E87" s="68"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="69">
+        <v>266163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="68">
         <v>44278</v>
       </c>
       <c r="B88" s="45">
-        <v>214088</v>
+        <v>214092</v>
       </c>
       <c r="C88" s="45">
-        <v>83768</v>
+        <v>83767</v>
       </c>
       <c r="D88" s="45">
-        <v>297856</v>
-      </c>
-      <c r="E88" s="68"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="71">
+        <v>297859</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="70">
         <v>44279</v>
       </c>
       <c r="B89" s="46">
-        <v>245702</v>
+        <v>245700</v>
       </c>
       <c r="C89" s="46">
-        <v>88314</v>
+        <v>88312</v>
       </c>
       <c r="D89" s="46">
-        <v>334016</v>
-      </c>
-      <c r="E89" s="68"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="69">
+        <v>334012</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="68">
         <v>44280</v>
       </c>
       <c r="B90" s="45">
-        <v>257180</v>
+        <v>257324</v>
       </c>
       <c r="C90" s="45">
-        <v>80160</v>
+        <v>80157</v>
       </c>
       <c r="D90" s="45">
-        <v>337340</v>
-      </c>
-      <c r="E90" s="68"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="71">
+        <v>337481</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="70">
         <v>44281</v>
       </c>
       <c r="B91" s="46">
-        <v>285938</v>
+        <v>285968</v>
       </c>
       <c r="C91" s="46">
-        <v>88756</v>
+        <v>88753</v>
       </c>
       <c r="D91" s="46">
-        <v>374694</v>
-      </c>
-      <c r="E91" s="68"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="69">
+        <v>374721</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="68">
         <v>44282</v>
       </c>
       <c r="B92" s="45">
-        <v>223584</v>
+        <v>223591</v>
       </c>
       <c r="C92" s="45">
-        <v>63178</v>
+        <v>63179</v>
       </c>
       <c r="D92" s="45">
-        <v>286762</v>
-      </c>
-      <c r="E92" s="68"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="71">
+        <v>286770</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="70">
         <v>44283</v>
       </c>
       <c r="B93" s="46">
-        <v>144168</v>
+        <v>144171</v>
       </c>
       <c r="C93" s="46">
-        <v>52749</v>
+        <v>52748</v>
       </c>
       <c r="D93" s="46">
-        <v>196917</v>
-      </c>
-      <c r="E93" s="68"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="69">
+        <v>196919</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="68">
         <v>44284</v>
       </c>
       <c r="B94" s="45">
-        <v>219480</v>
+        <v>219674</v>
       </c>
       <c r="C94" s="45">
-        <v>89034</v>
+        <v>89033</v>
       </c>
       <c r="D94" s="45">
-        <v>308514</v>
-      </c>
-      <c r="E94" s="68"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="73">
+        <v>308707</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="72">
         <v>44285</v>
       </c>
       <c r="B95" s="47">
-        <v>234668</v>
+        <v>235049</v>
       </c>
       <c r="C95" s="47">
-        <v>93378</v>
+        <v>93353</v>
       </c>
       <c r="D95" s="47">
-        <v>328046</v>
-      </c>
-      <c r="E95" s="68"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="69">
+        <v>328402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="68">
         <v>44286</v>
       </c>
       <c r="B96" s="45">
-        <v>238176</v>
+        <v>238214</v>
       </c>
       <c r="C96" s="45">
-        <v>103113</v>
+        <v>103105</v>
       </c>
       <c r="D96" s="45">
-        <v>341289</v>
-      </c>
-      <c r="E96" s="68"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="73">
+        <v>341319</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="72">
         <v>44287</v>
       </c>
       <c r="B97" s="47">
-        <v>231047</v>
+        <v>231116</v>
       </c>
       <c r="C97" s="47">
-        <v>92445</v>
+        <v>92431</v>
       </c>
       <c r="D97" s="47">
-        <v>323492</v>
-      </c>
-      <c r="E97" s="68"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="69">
+        <v>323547</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="68">
         <v>44288</v>
       </c>
       <c r="B98" s="45">
-        <v>158230</v>
+        <v>158253</v>
       </c>
       <c r="C98" s="45">
-        <v>71613</v>
+        <v>71609</v>
       </c>
       <c r="D98" s="45">
-        <v>229843</v>
-      </c>
-      <c r="E98" s="68"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="71">
+        <v>229862</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="70">
         <v>44289</v>
       </c>
       <c r="B99" s="46">
-        <v>165891</v>
+        <v>165894</v>
       </c>
       <c r="C99" s="46">
-        <v>66038</v>
+        <v>66035</v>
       </c>
       <c r="D99" s="46">
         <v>231929</v>
       </c>
-      <c r="E99" s="68"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="69">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="68">
         <v>44290</v>
       </c>
       <c r="B100" s="45">
         <v>142475</v>
       </c>
       <c r="C100" s="45">
-        <v>53569</v>
+        <v>53568</v>
       </c>
       <c r="D100" s="45">
-        <v>196044</v>
-      </c>
-      <c r="E100" s="68"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="71">
+        <v>196043</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="70">
         <v>44291</v>
       </c>
       <c r="B101" s="46">
-        <v>176190</v>
+        <v>176196</v>
       </c>
       <c r="C101" s="46">
-        <v>73413</v>
+        <v>73409</v>
       </c>
       <c r="D101" s="46">
-        <v>249603</v>
-      </c>
-      <c r="E101" s="68"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="69">
+        <v>249605</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="68">
         <v>44292</v>
       </c>
       <c r="B102" s="45">
-        <v>279003</v>
+        <v>279204</v>
       </c>
       <c r="C102" s="45">
-        <v>99150</v>
+        <v>99141</v>
       </c>
       <c r="D102" s="45">
-        <v>378153</v>
-      </c>
-      <c r="E102" s="68"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="71">
+        <v>378345</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="70">
         <v>44293</v>
       </c>
       <c r="B103" s="46">
-        <v>580245</v>
+        <v>580270</v>
       </c>
       <c r="C103" s="46">
-        <v>97116</v>
+        <v>97115</v>
       </c>
       <c r="D103" s="46">
-        <v>677361</v>
-      </c>
-      <c r="E103" s="68"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="69">
+        <v>677385</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="68">
         <v>44294</v>
       </c>
       <c r="B104" s="45">
-        <v>642886</v>
+        <v>642893</v>
       </c>
       <c r="C104" s="45">
-        <v>89768</v>
+        <v>89764</v>
       </c>
       <c r="D104" s="45">
-        <v>732654</v>
-      </c>
-      <c r="E104" s="68"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="71">
+        <v>732657</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="70">
         <v>44295</v>
       </c>
       <c r="B105" s="46">
-        <v>534601</v>
+        <v>534632</v>
       </c>
       <c r="C105" s="46">
-        <v>88356</v>
+        <v>88355</v>
       </c>
       <c r="D105" s="46">
-        <v>622957</v>
-      </c>
-      <c r="E105" s="68"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="69">
+        <v>622987</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="68">
         <v>44296</v>
       </c>
       <c r="B106" s="45">
-        <v>302926</v>
+        <v>302930</v>
       </c>
       <c r="C106" s="45">
-        <v>65480</v>
+        <v>65478</v>
       </c>
       <c r="D106" s="45">
-        <v>368406</v>
-      </c>
-      <c r="E106" s="68"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="71">
+        <v>368408</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="70">
         <v>44297</v>
       </c>
       <c r="B107" s="46">
-        <v>210480</v>
+        <v>210481</v>
       </c>
       <c r="C107" s="46">
-        <v>50099</v>
+        <v>50096</v>
       </c>
       <c r="D107" s="46">
-        <v>260579</v>
-      </c>
-      <c r="E107" s="68"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="69">
+        <v>260577</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="68">
         <v>44298</v>
       </c>
       <c r="B108" s="45">
-        <v>338566</v>
+        <v>338579</v>
       </c>
       <c r="C108" s="45">
         <v>76836</v>
       </c>
       <c r="D108" s="45">
-        <v>415402</v>
-      </c>
-      <c r="E108" s="68"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="71">
+        <v>415415</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="70">
         <v>44299</v>
       </c>
       <c r="B109" s="46">
-        <v>497596</v>
+        <v>497631</v>
       </c>
       <c r="C109" s="46">
-        <v>73406</v>
+        <v>73405</v>
       </c>
       <c r="D109" s="46">
-        <v>571002</v>
-      </c>
-      <c r="E109" s="68"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="69">
+        <v>571036</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="68">
         <v>44300</v>
       </c>
       <c r="B110" s="45">
-        <v>690330</v>
+        <v>690325</v>
       </c>
       <c r="C110" s="45">
-        <v>83379</v>
+        <v>83386</v>
       </c>
       <c r="D110" s="45">
-        <v>773709</v>
-      </c>
-      <c r="E110" s="68"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="73">
+        <v>773711</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="72">
         <v>44301</v>
       </c>
       <c r="B111" s="47">
-        <v>608448</v>
+        <v>608470</v>
       </c>
       <c r="C111" s="47">
-        <v>70788</v>
+        <v>70792</v>
       </c>
       <c r="D111" s="47">
-        <v>679236</v>
-      </c>
-      <c r="E111" s="68"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="69">
+        <v>679262</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="68">
         <v>44302</v>
       </c>
       <c r="B112" s="45">
-        <v>517790</v>
+        <v>517818</v>
       </c>
       <c r="C112" s="45">
-        <v>75377</v>
+        <v>75370</v>
       </c>
       <c r="D112" s="45">
-        <v>593167</v>
-      </c>
-      <c r="E112" s="68"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="73">
+        <v>593188</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="72">
         <v>44303</v>
       </c>
       <c r="B113" s="47">
-        <v>305728</v>
+        <v>305729</v>
       </c>
       <c r="C113" s="47">
-        <v>56364</v>
+        <v>56370</v>
       </c>
       <c r="D113" s="47">
-        <v>362092</v>
-      </c>
-      <c r="E113" s="68"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="69">
+        <v>362099</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="68">
         <v>44304</v>
       </c>
       <c r="B114" s="45">
@@ -5916,382 +5803,374 @@
       <c r="D114" s="45">
         <v>266174</v>
       </c>
-      <c r="E114" s="68"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="71">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="70">
         <v>44305</v>
       </c>
       <c r="B115" s="46">
-        <v>338161</v>
+        <v>338181</v>
       </c>
       <c r="C115" s="46">
-        <v>60753</v>
+        <v>60762</v>
       </c>
       <c r="D115" s="46">
-        <v>398914</v>
-      </c>
-      <c r="E115" s="68"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="69">
+        <v>398943</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="68">
         <v>44306</v>
       </c>
       <c r="B116" s="45">
-        <v>493384</v>
+        <v>493516</v>
       </c>
       <c r="C116" s="45">
-        <v>61315</v>
+        <v>61576</v>
       </c>
       <c r="D116" s="45">
-        <v>554699</v>
-      </c>
-      <c r="E116" s="68"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="71">
+        <v>555092</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="70">
         <v>44307</v>
       </c>
       <c r="B117" s="46">
-        <v>641348</v>
+        <v>641511</v>
       </c>
       <c r="C117" s="46">
-        <v>71478</v>
+        <v>71480</v>
       </c>
       <c r="D117" s="46">
-        <v>712826</v>
-      </c>
-      <c r="E117" s="68"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="69">
+        <v>712991</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="68">
         <v>44308</v>
       </c>
       <c r="B118" s="45">
-        <v>567617</v>
+        <v>567793</v>
       </c>
       <c r="C118" s="45">
-        <v>65652</v>
+        <v>65653</v>
       </c>
       <c r="D118" s="45">
-        <v>633269</v>
-      </c>
-      <c r="E118" s="68"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="71">
+        <v>633446</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="70">
         <v>44309</v>
       </c>
       <c r="B119" s="46">
-        <v>483270</v>
+        <v>483320</v>
       </c>
       <c r="C119" s="46">
-        <v>67189</v>
+        <v>67195</v>
       </c>
       <c r="D119" s="46">
-        <v>550459</v>
-      </c>
-      <c r="E119" s="68"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="69">
+        <v>550515</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="68">
         <v>44310</v>
       </c>
       <c r="B120" s="45">
-        <v>309226</v>
+        <v>309260</v>
       </c>
       <c r="C120" s="45">
-        <v>59523</v>
+        <v>59528</v>
       </c>
       <c r="D120" s="45">
-        <v>368749</v>
-      </c>
-      <c r="E120" s="68"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="71">
+        <v>368788</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="70">
         <v>44311</v>
       </c>
       <c r="B121" s="46">
-        <v>235428</v>
+        <v>235431</v>
       </c>
       <c r="C121" s="46">
-        <v>47578</v>
+        <v>47579</v>
       </c>
       <c r="D121" s="46">
-        <v>283006</v>
-      </c>
-      <c r="E121" s="68"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="69">
+        <v>283010</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="68">
         <v>44312</v>
       </c>
       <c r="B122" s="45">
-        <v>354343</v>
+        <v>354367</v>
       </c>
       <c r="C122" s="45">
-        <v>73113</v>
+        <v>73172</v>
       </c>
       <c r="D122" s="45">
-        <v>427456</v>
-      </c>
-      <c r="E122" s="68"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="71">
+        <v>427539</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="70">
         <v>44313</v>
       </c>
       <c r="B123" s="46">
-        <v>693306</v>
+        <v>693401</v>
       </c>
       <c r="C123" s="46">
-        <v>90055</v>
+        <v>90165</v>
       </c>
       <c r="D123" s="46">
-        <v>783361</v>
-      </c>
-      <c r="E123" s="68"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="69">
+        <v>783566</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="68">
         <v>44314</v>
       </c>
       <c r="B124" s="45">
-        <v>993112</v>
+        <v>993196</v>
       </c>
       <c r="C124" s="45">
-        <v>126492</v>
+        <v>126656</v>
       </c>
       <c r="D124" s="45">
-        <v>1119604</v>
-      </c>
-      <c r="E124" s="68"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="71">
+        <v>1119852</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="70">
         <v>44315</v>
       </c>
       <c r="B125" s="46">
-        <v>807811</v>
+        <v>807994</v>
       </c>
       <c r="C125" s="46">
-        <v>131275</v>
+        <v>131586</v>
       </c>
       <c r="D125" s="46">
-        <v>939086</v>
-      </c>
-      <c r="E125" s="68"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="69">
+        <v>939580</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="68">
         <v>44316</v>
       </c>
       <c r="B126" s="45">
-        <v>660705</v>
+        <v>661620</v>
       </c>
       <c r="C126" s="45">
-        <v>136519</v>
+        <v>137030</v>
       </c>
       <c r="D126" s="45">
-        <v>797224</v>
-      </c>
-      <c r="E126" s="68"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="71">
+        <v>798650</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="70">
         <v>44317</v>
       </c>
       <c r="B127" s="46">
-        <v>257772</v>
+        <v>258086</v>
       </c>
       <c r="C127" s="46">
-        <v>75690</v>
+        <v>75769</v>
       </c>
       <c r="D127" s="46">
-        <v>333462</v>
-      </c>
-      <c r="E127" s="68"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="69">
+        <v>333855</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="68">
         <v>44318</v>
       </c>
       <c r="B128" s="45">
-        <v>195034</v>
+        <v>195051</v>
       </c>
       <c r="C128" s="45">
-        <v>67362</v>
+        <v>67376</v>
       </c>
       <c r="D128" s="45">
-        <v>262396</v>
-      </c>
-      <c r="E128" s="68"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="71">
+        <v>262427</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="70">
         <v>44319</v>
       </c>
       <c r="B129" s="46">
-        <v>332355</v>
+        <v>332387</v>
       </c>
       <c r="C129" s="46">
-        <v>114817</v>
+        <v>114977</v>
       </c>
       <c r="D129" s="46">
-        <v>447172</v>
-      </c>
-      <c r="E129" s="68"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="69">
+        <v>447364</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="68">
         <v>44320</v>
       </c>
       <c r="B130" s="45">
-        <v>676330</v>
+        <v>677011</v>
       </c>
       <c r="C130" s="45">
-        <v>159302</v>
+        <v>159940</v>
       </c>
       <c r="D130" s="45">
-        <v>835632</v>
-      </c>
-      <c r="E130" s="68"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="71">
+        <v>836951</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="70">
         <v>44321</v>
       </c>
       <c r="B131" s="46">
-        <v>903068</v>
+        <v>906680</v>
       </c>
       <c r="C131" s="46">
-        <v>221838</v>
+        <v>223305</v>
       </c>
       <c r="D131" s="46">
-        <v>1124906</v>
-      </c>
-      <c r="E131" s="68"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="69">
+        <v>1129985</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="68">
         <v>44322</v>
       </c>
       <c r="B132" s="45">
-        <v>745264</v>
+        <v>758999</v>
       </c>
       <c r="C132" s="45">
-        <v>208730</v>
+        <v>214340</v>
       </c>
       <c r="D132" s="45">
-        <v>953994</v>
-      </c>
-      <c r="E132" s="68"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="71">
+        <v>973339</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="70">
         <v>44323</v>
       </c>
       <c r="B133" s="46">
-        <v>628739</v>
+        <v>642326</v>
       </c>
       <c r="C133" s="46">
-        <v>208811</v>
+        <v>222064</v>
       </c>
       <c r="D133" s="46">
-        <v>837550</v>
-      </c>
-      <c r="E133" s="68"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="69">
+        <v>864390</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="68">
         <v>44324</v>
       </c>
       <c r="B134" s="45">
-        <v>262982</v>
+        <v>266787</v>
       </c>
       <c r="C134" s="45">
-        <v>145561</v>
+        <v>148585</v>
       </c>
       <c r="D134" s="45">
-        <v>408543</v>
-      </c>
-      <c r="E134" s="68"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="71">
+        <v>415372</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="70">
         <v>44325</v>
       </c>
       <c r="B135" s="46">
-        <v>172912</v>
+        <v>177042</v>
       </c>
       <c r="C135" s="46">
-        <v>98862</v>
+        <v>99570</v>
       </c>
       <c r="D135" s="46">
-        <v>271774</v>
-      </c>
-      <c r="E135" s="68"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="69">
+        <v>276612</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="68">
         <v>44326</v>
       </c>
       <c r="B136" s="45">
-        <v>381100</v>
+        <v>384810</v>
       </c>
       <c r="C136" s="45">
-        <v>176512</v>
+        <v>181997</v>
       </c>
       <c r="D136" s="45">
-        <v>557612</v>
-      </c>
-      <c r="E136" s="68"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="71"/>
-      <c r="B137" s="46"/>
-      <c r="C137" s="46"/>
-      <c r="D137" s="46"/>
-      <c r="E137" s="68"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="71" t="s">
+        <v>566807</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="70">
+        <v>44327</v>
+      </c>
+      <c r="B137" s="46">
+        <v>782301</v>
+      </c>
+      <c r="C137" s="46">
+        <v>265564</v>
+      </c>
+      <c r="D137" s="46">
+        <v>1047865</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="68"/>
+      <c r="B138" s="45"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="45"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B138" s="46">
-        <v>27686865</v>
-      </c>
-      <c r="C138" s="46">
-        <v>8022890</v>
-      </c>
-      <c r="D138" s="46">
-        <v>35709755</v>
-      </c>
-      <c r="E138" s="68"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="68"/>
-      <c r="B139" s="68"/>
-      <c r="C139" s="68"/>
-      <c r="D139" s="68"/>
-      <c r="E139" s="68"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="B140" s="68"/>
-      <c r="C140" s="68"/>
-      <c r="D140" s="68"/>
-      <c r="E140" s="68"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="68"/>
-      <c r="B141" s="68"/>
-      <c r="C141" s="68"/>
-      <c r="D141" s="68"/>
-      <c r="E141" s="68"/>
+      <c r="B139" s="46">
+        <v>28516504</v>
+      </c>
+      <c r="C139" s="46">
+        <v>8320680</v>
+      </c>
+      <c r="D139" s="46">
+        <v>36837184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="74"/>
+      <c r="B140" s="74"/>
+      <c r="C140" s="74"/>
+      <c r="D140" s="74"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B141" s="74"/>
+      <c r="C141" s="74"/>
+      <c r="D141" s="74"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="74"/>
+      <c r="B142" s="74"/>
+      <c r="C142" s="74"/>
+      <c r="D142" s="74"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="74"/>
+      <c r="B143" s="74"/>
+      <c r="C143" s="74"/>
+      <c r="D143" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
